--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="3740" yWindow="640" windowWidth="50360" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="340">
   <si>
     <t>No</t>
   </si>
@@ -1381,6 +1381,36 @@
       </rPr>
       <t>:00执行一次</t>
     </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+  </si>
+  <si>
+    <t>提交资方买回数据，从资方拉取买回数据</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MogoBuyBackTask</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>MogoBuyBackTask</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MogoBuyBackTask"}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔120分钟执行一次</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1908,7 +1938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,33 +2130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2336,6 +2339,45 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2816,16 +2858,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="65" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="47" t="s">
@@ -2847,7 +2889,7 @@
         <v>42824</v>
       </c>
       <c r="K2" s="47"/>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="66" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="47" t="s">
@@ -2856,38 +2898,38 @@
       <c r="N2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="66" t="s">
         <v>78</v>
       </c>
       <c r="Q2" s="48">
         <v>42824</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="79"/>
+      <c r="T2" s="70"/>
       <c r="U2" s="45"/>
       <c r="V2" s="53"/>
       <c r="W2" s="58"/>
       <c r="X2" s="59"/>
     </row>
     <row r="3" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A3" s="73">
+      <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="65" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="47" t="s">
@@ -2909,53 +2951,53 @@
         <v>42824</v>
       </c>
       <c r="K3" s="47"/>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="66" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="71" t="s">
         <v>76</v>
       </c>
       <c r="O3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="66" t="s">
         <v>78</v>
       </c>
       <c r="Q3" s="48">
         <v>42824</v>
       </c>
-      <c r="R3" s="77" t="s">
+      <c r="R3" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="T3" s="81"/>
+      <c r="T3" s="72"/>
       <c r="U3" s="45"/>
       <c r="V3" s="53"/>
       <c r="W3" s="60"/>
       <c r="X3" s="59"/>
     </row>
     <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73">
+      <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="65" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="71" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="47" t="s">
@@ -2971,400 +3013,400 @@
         <v>42824</v>
       </c>
       <c r="K4" s="47"/>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="66" t="s">
         <v>89</v>
       </c>
       <c r="M4" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="71" t="s">
         <v>76</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="66" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="48">
         <v>42824</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="T4" s="81"/>
+      <c r="T4" s="72"/>
       <c r="U4" s="45"/>
       <c r="V4" s="53"/>
       <c r="W4" s="58"/>
       <c r="X4" s="59"/>
     </row>
     <row r="5" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" s="73">
+      <c r="A5" s="64">
         <v>4</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="75">
         <v>42810</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="75">
         <v>42810</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="76" t="s">
+      <c r="K5" s="71"/>
+      <c r="L5" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="76" t="s">
+      <c r="O5" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="76" t="s">
+      <c r="P5" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="75">
         <v>42818</v>
       </c>
-      <c r="R5" s="76" t="s">
+      <c r="R5" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="85" t="s">
+      <c r="S5" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="86"/>
+      <c r="T5" s="77"/>
       <c r="U5" s="45"/>
       <c r="V5" s="53"/>
       <c r="W5" s="60"/>
       <c r="X5" s="59"/>
     </row>
     <row r="6" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A6" s="73">
+      <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="75">
         <v>42810</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="84">
+      <c r="J6" s="75">
         <v>42810</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="76" t="s">
+      <c r="K6" s="71"/>
+      <c r="L6" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="Q6" s="75">
         <v>42818</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="R6" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="87" t="s">
+      <c r="S6" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="T6" s="86"/>
+      <c r="T6" s="77"/>
       <c r="U6" s="45"/>
       <c r="V6" s="53"/>
       <c r="W6" s="60"/>
       <c r="X6" s="59"/>
     </row>
     <row r="7" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
+      <c r="A7" s="64">
         <v>6</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="75">
         <v>42810</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="75">
         <v>42810</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="N7" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="76" t="s">
+      <c r="P7" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="75">
         <v>42818</v>
       </c>
-      <c r="R7" s="76" t="s">
+      <c r="R7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="86"/>
+      <c r="T7" s="77"/>
       <c r="U7" s="45"/>
       <c r="V7" s="53"/>
       <c r="W7" s="60"/>
       <c r="X7" s="59"/>
     </row>
     <row r="8" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A8" s="73">
+      <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="75">
         <v>42810</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="75">
         <v>42810</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="76" t="s">
+      <c r="K8" s="71"/>
+      <c r="L8" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="76" t="s">
+      <c r="O8" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="P8" s="76" t="s">
+      <c r="P8" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="75">
         <v>42818</v>
       </c>
-      <c r="R8" s="76" t="s">
+      <c r="R8" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="85" t="s">
+      <c r="S8" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="T8" s="86"/>
+      <c r="T8" s="77"/>
       <c r="U8" s="45"/>
       <c r="V8" s="53"/>
       <c r="W8" s="60"/>
       <c r="X8" s="59"/>
     </row>
     <row r="9" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="64">
         <v>8</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="75">
         <v>42810</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="75">
         <v>42810</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="76" t="s">
+      <c r="K9" s="71"/>
+      <c r="L9" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="N9" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="76" t="s">
+      <c r="O9" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="76" t="s">
+      <c r="P9" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="75">
         <v>42818</v>
       </c>
-      <c r="R9" s="76" t="s">
+      <c r="R9" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="85" t="s">
+      <c r="S9" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="T9" s="86"/>
+      <c r="T9" s="77"/>
       <c r="U9" s="55"/>
       <c r="V9" s="53"/>
       <c r="W9" s="60"/>
       <c r="X9" s="59"/>
     </row>
     <row r="10" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A10" s="73">
+      <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="83">
         <v>42830</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="83">
         <v>42830</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="93" t="s">
+      <c r="K10" s="82"/>
+      <c r="L10" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="84">
+      <c r="Q10" s="75">
         <v>42818</v>
       </c>
-      <c r="R10" s="76" t="s">
+      <c r="R10" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="93" t="s">
+      <c r="S10" s="84" t="s">
         <v>118</v>
       </c>
       <c r="T10" s="45"/>
@@ -3374,57 +3416,57 @@
       <c r="X10" s="59"/>
     </row>
     <row r="11" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A11" s="73">
+      <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="98">
         <v>42808</v>
       </c>
-      <c r="I11" s="105" t="s">
+      <c r="I11" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="107">
+      <c r="J11" s="98">
         <v>42808</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="108" t="s">
+      <c r="K11" s="96"/>
+      <c r="L11" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="M11" s="106" t="s">
+      <c r="M11" s="97" t="s">
         <v>152</v>
       </c>
       <c r="N11" s="36"/>
-      <c r="O11" s="106" t="s">
+      <c r="O11" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="108" t="s">
+      <c r="P11" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="107">
+      <c r="Q11" s="98">
         <v>42826</v>
       </c>
-      <c r="R11" s="109" t="s">
+      <c r="R11" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="87" t="s">
+      <c r="S11" s="78" t="s">
         <v>154</v>
       </c>
       <c r="T11" s="45"/>
@@ -3434,59 +3476,59 @@
       <c r="X11" s="59"/>
     </row>
     <row r="12" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A12" s="73">
+      <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="107">
+      <c r="H12" s="98">
         <v>42808</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="107">
+      <c r="J12" s="98">
         <v>42808</v>
       </c>
-      <c r="K12" s="113" t="s">
+      <c r="K12" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="L12" s="115" t="s">
+      <c r="L12" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="105" t="s">
         <v>152</v>
       </c>
       <c r="N12" s="36"/>
-      <c r="O12" s="114" t="s">
+      <c r="O12" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="P12" s="115" t="s">
+      <c r="P12" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="107">
+      <c r="Q12" s="98">
         <v>42826</v>
       </c>
-      <c r="R12" s="116" t="s">
+      <c r="R12" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="S12" s="87" t="s">
+      <c r="S12" s="78" t="s">
         <v>154</v>
       </c>
       <c r="T12" s="45"/>
@@ -3496,57 +3538,57 @@
       <c r="X12" s="59"/>
     </row>
     <row r="13" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
+      <c r="A13" s="64">
         <v>12</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="98">
         <v>42808</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="98">
         <v>42808</v>
       </c>
-      <c r="K13" s="113"/>
-      <c r="L13" s="115" t="s">
+      <c r="K13" s="104"/>
+      <c r="L13" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="105" t="s">
         <v>152</v>
       </c>
       <c r="N13" s="36"/>
-      <c r="O13" s="114" t="s">
+      <c r="O13" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="P13" s="115" t="s">
+      <c r="P13" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="107">
+      <c r="Q13" s="98">
         <v>42826</v>
       </c>
-      <c r="R13" s="116" t="s">
+      <c r="R13" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="87" t="s">
+      <c r="S13" s="78" t="s">
         <v>154</v>
       </c>
       <c r="T13" s="45"/>
@@ -3556,57 +3598,57 @@
       <c r="X13" s="59"/>
     </row>
     <row r="14" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="A14" s="64">
         <v>13</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="107">
+      <c r="H14" s="98">
         <v>42826</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="107">
+      <c r="J14" s="98">
         <v>42826</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="93" t="s">
+      <c r="K14" s="81"/>
+      <c r="L14" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="90"/>
-      <c r="O14" s="114" t="s">
+      <c r="N14" s="81"/>
+      <c r="O14" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="P14" s="115" t="s">
+      <c r="P14" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="107">
+      <c r="Q14" s="98">
         <v>42826</v>
       </c>
-      <c r="R14" s="116" t="s">
+      <c r="R14" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="S14" s="87" t="s">
+      <c r="S14" s="78" t="s">
         <v>164</v>
       </c>
       <c r="T14" s="45"/>
@@ -3616,57 +3658,57 @@
       <c r="X14" s="59"/>
     </row>
     <row r="15" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="A15" s="64">
         <v>14</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15" s="98">
         <v>42826</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="107">
+      <c r="J15" s="98">
         <v>42826</v>
       </c>
-      <c r="K15" s="90"/>
-      <c r="L15" s="93" t="s">
+      <c r="K15" s="81"/>
+      <c r="L15" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="90" t="s">
+      <c r="M15" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="90"/>
-      <c r="O15" s="114" t="s">
+      <c r="N15" s="81"/>
+      <c r="O15" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="115" t="s">
+      <c r="P15" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="107">
+      <c r="Q15" s="98">
         <v>42826</v>
       </c>
-      <c r="R15" s="116" t="s">
+      <c r="R15" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="119" t="s">
+      <c r="S15" s="110" t="s">
         <v>167</v>
       </c>
       <c r="T15" s="45"/>
@@ -3676,57 +3718,57 @@
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="73">
+      <c r="A16" s="64">
         <v>15</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="98">
         <v>42826</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="107">
+      <c r="J16" s="98">
         <v>42826</v>
       </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="93" t="s">
+      <c r="K16" s="81"/>
+      <c r="L16" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="M16" s="90" t="s">
+      <c r="M16" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="N16" s="90"/>
-      <c r="O16" s="114" t="s">
+      <c r="N16" s="81"/>
+      <c r="O16" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="P16" s="115" t="s">
+      <c r="P16" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="107">
+      <c r="Q16" s="98">
         <v>42826</v>
       </c>
-      <c r="R16" s="116" t="s">
+      <c r="R16" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="119" t="s">
+      <c r="S16" s="110" t="s">
         <v>167</v>
       </c>
       <c r="T16" s="45"/>
@@ -3736,16 +3778,16 @@
       <c r="X16" s="59"/>
     </row>
     <row r="17" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" s="73">
+      <c r="A17" s="64">
         <v>1</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="65" t="s">
         <v>276</v>
       </c>
       <c r="E17" s="47" t="s">
@@ -3767,7 +3809,7 @@
         <v>42827</v>
       </c>
       <c r="K17" s="47"/>
-      <c r="L17" s="73" t="s">
+      <c r="L17" s="64" t="s">
         <v>278</v>
       </c>
       <c r="M17" s="47" t="s">
@@ -3779,9 +3821,9 @@
       <c r="O17" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="P17" s="75"/>
+      <c r="P17" s="66"/>
       <c r="Q17" s="48"/>
-      <c r="R17" s="75"/>
+      <c r="R17" s="66"/>
       <c r="S17" s="54" t="s">
         <v>281</v>
       </c>
@@ -7522,10 +7564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:R14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7606,23 +7648,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="86"/>
       <c r="D2" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="88" t="s">
         <v>124</v>
       </c>
       <c r="H2" s="29" t="s">
@@ -7631,48 +7673,48 @@
       <c r="I2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="89" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="33"/>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="100" t="s">
+      <c r="P2" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="99" t="s">
+      <c r="Q2" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="99"/>
+      <c r="R2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="88" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="29" t="s">
@@ -7681,50 +7723,50 @@
       <c r="I3" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="89" t="s">
         <v>141</v>
       </c>
       <c r="K3" s="33"/>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="98" t="s">
+      <c r="N3" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="99" t="s">
+      <c r="O3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="100" t="s">
+      <c r="P3" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="99" t="s">
+      <c r="R3" s="90" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="120" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="113" t="s">
         <v>176</v>
       </c>
       <c r="H4" s="29" t="s">
@@ -7733,50 +7775,50 @@
       <c r="I4" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="89" t="s">
         <v>179</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="M4" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R4" s="99"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="120" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="113" t="s">
         <v>190</v>
       </c>
       <c r="H5" s="29" t="s">
@@ -7785,50 +7827,50 @@
       <c r="I5" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="89" t="s">
         <v>191</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="100" t="s">
+      <c r="P5" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q5" s="99" t="s">
+      <c r="Q5" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="99"/>
+      <c r="R5" s="90"/>
     </row>
     <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="120" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="113" t="s">
         <v>190</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -7837,50 +7879,50 @@
       <c r="I6" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="89" t="s">
         <v>196</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="98" t="s">
+      <c r="M6" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="98" t="s">
+      <c r="N6" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O6" s="99" t="s">
+      <c r="O6" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="P6" s="100" t="s">
+      <c r="P6" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q6" s="99" t="s">
+      <c r="Q6" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="99"/>
+      <c r="R6" s="90"/>
     </row>
     <row r="7" spans="1:18" ht="409" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="113" t="s">
         <v>202</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -7889,31 +7931,31 @@
       <c r="I7" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="89" t="s">
         <v>205</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L7" s="98" t="s">
+      <c r="L7" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="N7" s="98" t="s">
+      <c r="N7" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="99" t="s">
+      <c r="O7" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="100" t="s">
+      <c r="P7" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q7" s="99" t="s">
+      <c r="Q7" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="R7" s="99" t="s">
+      <c r="R7" s="90" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7921,53 +7963,53 @@
       <c r="A8" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="135" t="s">
+      <c r="F8" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="137" t="s">
+      <c r="K8" s="129"/>
+      <c r="L8" s="128" t="s">
         <v>288</v>
       </c>
-      <c r="M8" s="134" t="s">
+      <c r="M8" s="125" t="s">
         <v>289</v>
       </c>
-      <c r="N8" s="136" t="s">
+      <c r="N8" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="O8" s="139" t="s">
+      <c r="O8" s="130" t="s">
         <v>290</v>
       </c>
-      <c r="P8" s="140" t="s">
+      <c r="P8" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="134" t="s">
+      <c r="Q8" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="141" t="s">
+      <c r="R8" s="132" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7975,53 +8017,53 @@
       <c r="A9" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="135" t="s">
+      <c r="F9" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="137" t="s">
+      <c r="K9" s="129"/>
+      <c r="L9" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="M9" s="134" t="s">
+      <c r="M9" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="N9" s="136" t="s">
+      <c r="N9" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="139" t="s">
+      <c r="O9" s="130" t="s">
         <v>298</v>
       </c>
-      <c r="P9" s="140" t="s">
+      <c r="P9" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="134" t="s">
+      <c r="Q9" s="125" t="s">
         <v>299</v>
       </c>
-      <c r="R9" s="141" t="s">
+      <c r="R9" s="132" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8029,53 +8071,53 @@
       <c r="A10" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="114" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="125" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="135" t="s">
+      <c r="F10" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="136" t="s">
+      <c r="I10" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="137" t="s">
+      <c r="J10" s="128" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="138"/>
-      <c r="L10" s="137" t="s">
+      <c r="K10" s="129"/>
+      <c r="L10" s="128" t="s">
         <v>304</v>
       </c>
-      <c r="M10" s="134" t="s">
+      <c r="M10" s="125" t="s">
         <v>305</v>
       </c>
-      <c r="N10" s="136" t="s">
+      <c r="N10" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="139" t="s">
+      <c r="O10" s="130" t="s">
         <v>306</v>
       </c>
-      <c r="P10" s="140" t="s">
+      <c r="P10" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="134" t="s">
+      <c r="Q10" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="R10" s="141" t="s">
+      <c r="R10" s="132" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8083,22 +8125,22 @@
       <c r="A11" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="113" t="s">
         <v>310</v>
       </c>
       <c r="H11" s="29" t="s">
@@ -8107,31 +8149,31 @@
       <c r="I11" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J11" s="89" t="s">
         <v>311</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L11" s="98" t="s">
+      <c r="L11" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="M11" s="98" t="s">
+      <c r="M11" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O11" s="99" t="s">
+      <c r="O11" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="P11" s="100" t="s">
+      <c r="P11" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q11" s="99" t="s">
+      <c r="Q11" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R11" s="141" t="s">
+      <c r="R11" s="132" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8139,22 +8181,22 @@
       <c r="A12" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="113" t="s">
         <v>317</v>
       </c>
       <c r="H12" s="29" t="s">
@@ -8163,31 +8205,31 @@
       <c r="I12" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="89" t="s">
         <v>318</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L12" s="98" t="s">
+      <c r="L12" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="M12" s="98" t="s">
+      <c r="M12" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O12" s="99" t="s">
+      <c r="O12" s="90" t="s">
         <v>321</v>
       </c>
-      <c r="P12" s="100" t="s">
+      <c r="P12" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q12" s="99" t="s">
+      <c r="Q12" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R12" s="141" t="s">
+      <c r="R12" s="132" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8195,22 +8237,22 @@
       <c r="A13" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="113" t="s">
         <v>317</v>
       </c>
       <c r="H13" s="29" t="s">
@@ -8219,31 +8261,31 @@
       <c r="I13" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="J13" s="89" t="s">
         <v>323</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="98" t="s">
+      <c r="L13" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="M13" s="98" t="s">
+      <c r="M13" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="N13" s="98" t="s">
+      <c r="N13" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O13" s="99" t="s">
+      <c r="O13" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="P13" s="100" t="s">
+      <c r="P13" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q13" s="99" t="s">
+      <c r="Q13" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="141" t="s">
+      <c r="R13" s="132" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8251,22 +8293,22 @@
       <c r="A14" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="113" t="s">
         <v>317</v>
       </c>
       <c r="H14" s="29" t="s">
@@ -8275,32 +8317,75 @@
       <c r="I14" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="89" t="s">
         <v>328</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="M14" s="98" t="s">
+      <c r="M14" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="N14" s="98" t="s">
+      <c r="N14" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="O14" s="99" t="s">
+      <c r="O14" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="P14" s="100" t="s">
+      <c r="P14" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Q14" s="99" t="s">
+      <c r="Q14" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="R14" s="141" t="s">
+      <c r="R14" s="132" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="85"/>
+      <c r="B15" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="143" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="142" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="143" t="s">
+        <v>335</v>
+      </c>
+      <c r="H15" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="143" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143" t="s">
+        <v>337</v>
+      </c>
+      <c r="M15" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="N15" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="144" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -8330,19 +8415,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -8380,8 +8465,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8393,8 +8478,8 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -8406,8 +8491,8 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8419,8 +8504,8 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -8432,8 +8517,8 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8445,8 +8530,8 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -8458,8 +8543,8 @@
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8471,8 +8556,8 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8533,36 +8618,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8606,322 +8691,322 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A4" s="123">
+      <c r="A4" s="114">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="116" t="s">
         <v>215</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" s="123">
+      <c r="A5" s="114">
         <v>2</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="117" t="s">
         <v>220</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="125"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="409" x14ac:dyDescent="0.15">
-      <c r="A6" s="123">
+      <c r="A6" s="114">
         <v>3</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="114" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.15">
-      <c r="A7" s="123">
+      <c r="A7" s="114">
         <v>4</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="123" t="s">
+      <c r="K7" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L7" s="123" t="s">
+      <c r="L7" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="123" t="s">
+      <c r="M7" s="114" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="123">
+      <c r="A8" s="114">
         <v>5</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="123" t="s">
+      <c r="K8" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="114" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="123">
+      <c r="A9" s="114">
         <v>6</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="123" t="s">
+      <c r="H9" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="128" t="s">
+      <c r="I9" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="J9" s="123" t="s">
+      <c r="J9" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K9" s="123" t="s">
+      <c r="K9" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L9" s="123" t="s">
+      <c r="L9" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="M9" s="123" t="s">
+      <c r="M9" s="114" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="123">
+      <c r="A10" s="114">
         <v>7</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="123" t="s">
+      <c r="H10" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="J10" s="123" t="s">
+      <c r="J10" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K10" s="123" t="s">
+      <c r="K10" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="M10" s="123" t="s">
+      <c r="M10" s="114" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" s="123">
+      <c r="A11" s="114">
         <v>9</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="123" t="s">
+      <c r="H11" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="I11" s="128" t="s">
+      <c r="I11" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="123" t="s">
+      <c r="J11" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="123" t="s">
+      <c r="K11" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="123" t="s">
+      <c r="L11" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="125" t="s">
+      <c r="M11" s="116" t="s">
         <v>243</v>
       </c>
     </row>
@@ -9047,36 +9132,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9121,149 +9206,149 @@
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="114" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="116" t="s">
         <v>247</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="114" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="117" t="s">
         <v>252</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="M5" s="125"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="121" t="s">
         <v>249</v>
       </c>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="120" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="129" t="s">
+      <c r="L7" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="M7" s="131" t="s">
+      <c r="M7" s="122" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9446,36 +9531,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9520,149 +9605,149 @@
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="116" t="s">
         <v>267</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="117" t="s">
         <v>271</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="M5" s="125"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="121" t="s">
         <v>249</v>
       </c>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="120" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="129" t="s">
+      <c r="L7" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="M7" s="131" t="s">
+      <c r="M7" s="122" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9847,36 +9932,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9921,149 +10006,149 @@
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="116" t="s">
         <v>215</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="117" t="s">
         <v>220</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="125"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="121" t="s">
         <v>249</v>
       </c>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="L6" s="129" t="s">
+      <c r="L6" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="120" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="129" t="s">
+      <c r="L7" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="M7" s="131" t="s">
+      <c r="M7" s="122" t="s">
         <v>263</v>
       </c>
     </row>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.7 20170406/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="640" windowWidth="50360" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="3735" yWindow="645" windowWidth="50355" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="354">
   <si>
     <t>No</t>
   </si>
@@ -321,7 +316,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>url优化</t>
     </r>
@@ -354,7 +350,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>BS</t>
     </r>
@@ -362,7 +359,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>资方买回列表查询</t>
     </r>
@@ -394,7 +392,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>BS</t>
     </r>
@@ -402,7 +401,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>资方买回列表导出</t>
     </r>
@@ -592,7 +592,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1291,7 +1292,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1300,7 +1302,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:00执行一次</t>
     </r>
@@ -1329,7 +1332,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
@@ -1338,7 +1342,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:00执行一次</t>
     </r>
@@ -1368,7 +1373,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -1377,7 +1383,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:00执行一次</t>
     </r>
@@ -1413,12 +1420,101 @@
     <t>每隔120分钟执行一次</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>去除不需要的renter文件</t>
+    <rPh sb="0" eb="1">
+      <t>qu'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'xu'yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen'jian</t>
+    </rPh>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleapi</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <rPh sb="0" eb="1">
+      <t>jin'gang</t>
+    </rPh>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-749</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序3.0优先发布初始化</t>
+    <rPh sb="0" eb="1">
+      <t>pai'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu'shi'hau</t>
+    </rPh>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc、rentertp、BS、LTS</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <rPh sb="0" eb="1">
+      <t>peng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chun</t>
+    </rPh>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>刘俊岐/吴永余</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>FYPX-17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1438,20 +1534,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1489,35 +1588,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1607,7 +1712,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1627,6 +1733,35 @@
       <color rgb="FFBFBFBF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1938,7 +2073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2340,6 +2475,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2367,16 +2514,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2394,7 +2559,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
@@ -2753,40 +2918,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="36" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="36" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="37" customWidth="1"/>
     <col min="5" max="5" width="15" style="36" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="36" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="36" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="37" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="36" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="36" customWidth="1"/>
     <col min="16" max="16" width="10" style="37" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="37" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="37" customWidth="1"/>
     <col min="19" max="20" width="12" style="38" customWidth="1"/>
     <col min="21" max="21" width="17" style="38" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="38" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="37" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="38" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="37" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="34" customFormat="1" ht="27">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +3022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -2919,7 +3084,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="59"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -2981,7 +3146,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="59"/>
     </row>
-    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -3043,7 +3208,7 @@
       <c r="W4" s="58"/>
       <c r="X4" s="59"/>
     </row>
-    <row r="5" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -3105,7 +3270,7 @@
       <c r="W5" s="60"/>
       <c r="X5" s="59"/>
     </row>
-    <row r="6" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -3167,7 +3332,7 @@
       <c r="W6" s="60"/>
       <c r="X6" s="59"/>
     </row>
-    <row r="7" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -3229,7 +3394,7 @@
       <c r="W7" s="60"/>
       <c r="X7" s="59"/>
     </row>
-    <row r="8" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -3291,7 +3456,7 @@
       <c r="W8" s="60"/>
       <c r="X8" s="59"/>
     </row>
-    <row r="9" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -3353,7 +3518,7 @@
       <c r="W9" s="60"/>
       <c r="X9" s="59"/>
     </row>
-    <row r="10" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="35" customFormat="1" ht="49.5">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -3415,7 +3580,7 @@
       <c r="W10" s="60"/>
       <c r="X10" s="59"/>
     </row>
-    <row r="11" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A11" s="64">
         <v>10</v>
       </c>
@@ -3475,7 +3640,7 @@
       <c r="W11" s="60"/>
       <c r="X11" s="59"/>
     </row>
-    <row r="12" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A12" s="64">
         <v>11</v>
       </c>
@@ -3537,7 +3702,7 @@
       <c r="W12" s="60"/>
       <c r="X12" s="59"/>
     </row>
-    <row r="13" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A13" s="64">
         <v>12</v>
       </c>
@@ -3597,7 +3762,7 @@
       <c r="W13" s="60"/>
       <c r="X13" s="59"/>
     </row>
-    <row r="14" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="35" customFormat="1" ht="49.5">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -3657,7 +3822,7 @@
       <c r="W14" s="60"/>
       <c r="X14" s="59"/>
     </row>
-    <row r="15" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A15" s="64">
         <v>14</v>
       </c>
@@ -3717,7 +3882,7 @@
       <c r="W15" s="60"/>
       <c r="X15" s="59"/>
     </row>
-    <row r="16" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A16" s="64">
         <v>15</v>
       </c>
@@ -3777,9 +3942,9 @@
       <c r="W16" s="60"/>
       <c r="X16" s="59"/>
     </row>
-    <row r="17" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A17" s="64">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>275</v>
@@ -3833,57 +3998,131 @@
       <c r="W17" s="61"/>
       <c r="X17" s="59"/>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="46"/>
-    </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="155" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="146">
+        <v>17</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="146" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="147" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="149">
+        <v>42831</v>
+      </c>
+      <c r="I18" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="149">
+        <v>42831</v>
+      </c>
+      <c r="K18" s="148"/>
+      <c r="L18" s="150" t="s">
+        <v>342</v>
+      </c>
+      <c r="M18" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="N18" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="148" t="s">
+        <v>344</v>
+      </c>
+      <c r="P18" s="150" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q18" s="149">
+        <v>42831</v>
+      </c>
+      <c r="R18" s="150" t="s">
+        <v>346</v>
+      </c>
+      <c r="S18" s="151" t="s">
+        <v>347</v>
+      </c>
+      <c r="T18" s="151"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="154"/>
+    </row>
+    <row r="19" spans="1:24" s="155" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="146">
+        <v>18</v>
+      </c>
+      <c r="B19" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="146" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="147" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="149">
+        <v>42829</v>
+      </c>
+      <c r="I19" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="149">
+        <v>42829</v>
+      </c>
+      <c r="K19" s="148"/>
+      <c r="L19" s="150" t="s">
+        <v>350</v>
+      </c>
+      <c r="M19" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="N19" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="O19" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="P19" s="150" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q19" s="149">
+        <v>42831</v>
+      </c>
+      <c r="R19" s="150" t="s">
+        <v>346</v>
+      </c>
+      <c r="S19" s="151" t="s">
+        <v>353</v>
+      </c>
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="154"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -3908,7 +4147,7 @@
       <c r="V20" s="45"/>
       <c r="W20" s="46"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -3933,7 +4172,7 @@
       <c r="V21" s="45"/>
       <c r="W21" s="60"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -3958,7 +4197,7 @@
       <c r="V22" s="45"/>
       <c r="W22" s="60"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -3983,7 +4222,7 @@
       <c r="V23" s="45"/>
       <c r="W23" s="60"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -4008,7 +4247,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="62"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -4033,7 +4272,7 @@
       <c r="V25" s="57"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="40"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -4058,7 +4297,7 @@
       <c r="V26" s="63"/>
       <c r="W26" s="62"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -4083,7 +4322,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -4108,7 +4347,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -4133,7 +4372,7 @@
       <c r="V29" s="55"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -4158,7 +4397,7 @@
       <c r="V30" s="45"/>
       <c r="W30" s="60"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -4183,7 +4422,7 @@
       <c r="V31" s="45"/>
       <c r="W31" s="60"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -4208,7 +4447,7 @@
       <c r="V32" s="45"/>
       <c r="W32" s="60"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4233,7 +4472,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="62"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -4258,7 +4497,7 @@
       <c r="V34" s="45"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -4283,7 +4522,7 @@
       <c r="V35" s="45"/>
       <c r="W35" s="60"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -4308,7 +4547,7 @@
       <c r="V36" s="45"/>
       <c r="W36" s="60"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -4333,7 +4572,7 @@
       <c r="V37" s="45"/>
       <c r="W37" s="60"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -4358,7 +4597,7 @@
       <c r="V38" s="45"/>
       <c r="W38" s="60"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -4383,7 +4622,7 @@
       <c r="V39" s="45"/>
       <c r="W39" s="60"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -4408,7 +4647,7 @@
       <c r="V40" s="45"/>
       <c r="W40" s="60"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -4433,7 +4672,7 @@
       <c r="V41" s="45"/>
       <c r="W41" s="60"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -4458,7 +4697,7 @@
       <c r="V42" s="45"/>
       <c r="W42" s="60"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -4483,7 +4722,7 @@
       <c r="V43" s="45"/>
       <c r="W43" s="60"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -4508,7 +4747,7 @@
       <c r="V44" s="45"/>
       <c r="W44" s="60"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -4533,7 +4772,7 @@
       <c r="V45" s="55"/>
       <c r="W45" s="60"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -4558,7 +4797,7 @@
       <c r="V46" s="55"/>
       <c r="W46" s="60"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -4583,7 +4822,7 @@
       <c r="V47" s="45"/>
       <c r="W47" s="46"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -4608,7 +4847,7 @@
       <c r="V48" s="45"/>
       <c r="W48" s="46"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
@@ -4633,7 +4872,7 @@
       <c r="V49" s="45"/>
       <c r="W49" s="46"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -4658,7 +4897,7 @@
       <c r="V50" s="45"/>
       <c r="W50" s="46"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -4683,7 +4922,7 @@
       <c r="V51" s="45"/>
       <c r="W51" s="46"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -4708,7 +4947,7 @@
       <c r="V52" s="45"/>
       <c r="W52" s="46"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -4733,7 +4972,7 @@
       <c r="V53" s="45"/>
       <c r="W53" s="46"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="45"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -4758,7 +4997,7 @@
       <c r="V54" s="45"/>
       <c r="W54" s="46"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -4783,7 +5022,7 @@
       <c r="V55" s="45"/>
       <c r="W55" s="46"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="45"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
@@ -4808,7 +5047,7 @@
       <c r="V56" s="45"/>
       <c r="W56" s="46"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
@@ -4833,7 +5072,7 @@
       <c r="V57" s="45"/>
       <c r="W57" s="46"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
@@ -4858,7 +5097,7 @@
       <c r="V58" s="45"/>
       <c r="W58" s="46"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -4883,7 +5122,7 @@
       <c r="V59" s="45"/>
       <c r="W59" s="46"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
@@ -4908,7 +5147,7 @@
       <c r="V60" s="45"/>
       <c r="W60" s="46"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
@@ -4933,7 +5172,7 @@
       <c r="V61" s="45"/>
       <c r="W61" s="46"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="45"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -4958,7 +5197,7 @@
       <c r="V62" s="45"/>
       <c r="W62" s="46"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -4983,7 +5222,7 @@
       <c r="V63" s="45"/>
       <c r="W63" s="46"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="45"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -5008,7 +5247,7 @@
       <c r="V64" s="45"/>
       <c r="W64" s="46"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -5033,7 +5272,7 @@
       <c r="V65" s="45"/>
       <c r="W65" s="46"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="45"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -5058,7 +5297,7 @@
       <c r="V66" s="45"/>
       <c r="W66" s="46"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="45"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -5083,7 +5322,7 @@
       <c r="V67" s="45"/>
       <c r="W67" s="46"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
@@ -5108,7 +5347,7 @@
       <c r="V68" s="45"/>
       <c r="W68" s="46"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
@@ -5133,7 +5372,7 @@
       <c r="V69" s="45"/>
       <c r="W69" s="46"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="45"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -5158,7 +5397,7 @@
       <c r="V70" s="45"/>
       <c r="W70" s="46"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="45"/>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
@@ -5183,7 +5422,7 @@
       <c r="V71" s="45"/>
       <c r="W71" s="46"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="45"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -5208,7 +5447,7 @@
       <c r="V72" s="45"/>
       <c r="W72" s="46"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="45"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
@@ -5233,7 +5472,7 @@
       <c r="V73" s="45"/>
       <c r="W73" s="46"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="45"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -5258,7 +5497,7 @@
       <c r="V74" s="45"/>
       <c r="W74" s="46"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="45"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
@@ -5283,7 +5522,7 @@
       <c r="V75" s="45"/>
       <c r="W75" s="46"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -5308,7 +5547,7 @@
       <c r="V76" s="45"/>
       <c r="W76" s="46"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="45"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
@@ -5333,7 +5572,7 @@
       <c r="V77" s="45"/>
       <c r="W77" s="46"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="45"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -5358,7 +5597,7 @@
       <c r="V78" s="45"/>
       <c r="W78" s="46"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="45"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
@@ -5383,7 +5622,7 @@
       <c r="V79" s="45"/>
       <c r="W79" s="46"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="45"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -5408,7 +5647,7 @@
       <c r="V80" s="45"/>
       <c r="W80" s="46"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="45"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -5433,7 +5672,7 @@
       <c r="V81" s="45"/>
       <c r="W81" s="46"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -5458,7 +5697,7 @@
       <c r="V82" s="45"/>
       <c r="W82" s="46"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="45"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -5483,7 +5722,7 @@
       <c r="V83" s="45"/>
       <c r="W83" s="46"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="45"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -5508,7 +5747,7 @@
       <c r="V84" s="45"/>
       <c r="W84" s="46"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="45"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
@@ -5533,7 +5772,7 @@
       <c r="V85" s="45"/>
       <c r="W85" s="46"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -5558,7 +5797,7 @@
       <c r="V86" s="45"/>
       <c r="W86" s="46"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="45"/>
       <c r="B87" s="45"/>
       <c r="C87" s="45"/>
@@ -5583,7 +5822,7 @@
       <c r="V87" s="45"/>
       <c r="W87" s="46"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -5608,7 +5847,7 @@
       <c r="V88" s="45"/>
       <c r="W88" s="46"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
@@ -5633,7 +5872,7 @@
       <c r="V89" s="45"/>
       <c r="W89" s="46"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="45"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -5658,7 +5897,7 @@
       <c r="V90" s="45"/>
       <c r="W90" s="46"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="45"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
@@ -5683,7 +5922,7 @@
       <c r="V91" s="45"/>
       <c r="W91" s="46"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="45"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -5708,7 +5947,7 @@
       <c r="V92" s="45"/>
       <c r="W92" s="46"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="45"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -5733,7 +5972,7 @@
       <c r="V93" s="45"/>
       <c r="W93" s="46"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="45"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
@@ -5758,7 +5997,7 @@
       <c r="V94" s="45"/>
       <c r="W94" s="46"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
@@ -5783,7 +6022,7 @@
       <c r="V95" s="45"/>
       <c r="W95" s="46"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -5808,7 +6047,7 @@
       <c r="V96" s="45"/>
       <c r="W96" s="46"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -5833,7 +6072,7 @@
       <c r="V97" s="45"/>
       <c r="W97" s="46"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="45"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -5858,7 +6097,7 @@
       <c r="V98" s="45"/>
       <c r="W98" s="46"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="45"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
@@ -5883,7 +6122,7 @@
       <c r="V99" s="45"/>
       <c r="W99" s="46"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -5908,7 +6147,7 @@
       <c r="V100" s="45"/>
       <c r="W100" s="46"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="45"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -5933,7 +6172,7 @@
       <c r="V101" s="45"/>
       <c r="W101" s="46"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -5958,7 +6197,7 @@
       <c r="V102" s="45"/>
       <c r="W102" s="46"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
@@ -5983,7 +6222,7 @@
       <c r="V103" s="45"/>
       <c r="W103" s="46"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="45"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
@@ -6008,7 +6247,7 @@
       <c r="V104" s="45"/>
       <c r="W104" s="46"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="45"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
@@ -6033,7 +6272,7 @@
       <c r="V105" s="45"/>
       <c r="W105" s="46"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="45"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
@@ -6058,7 +6297,7 @@
       <c r="V106" s="45"/>
       <c r="W106" s="46"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="45"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
@@ -6083,7 +6322,7 @@
       <c r="V107" s="45"/>
       <c r="W107" s="46"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="45"/>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -6108,7 +6347,7 @@
       <c r="V108" s="45"/>
       <c r="W108" s="46"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="45"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
@@ -6133,7 +6372,7 @@
       <c r="V109" s="45"/>
       <c r="W109" s="46"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -6158,7 +6397,7 @@
       <c r="V110" s="45"/>
       <c r="W110" s="46"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -6183,7 +6422,7 @@
       <c r="V111" s="45"/>
       <c r="W111" s="46"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="45"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -6208,7 +6447,7 @@
       <c r="V112" s="45"/>
       <c r="W112" s="46"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="45"/>
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
@@ -6233,7 +6472,7 @@
       <c r="V113" s="45"/>
       <c r="W113" s="46"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="45"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
@@ -6258,7 +6497,7 @@
       <c r="V114" s="45"/>
       <c r="W114" s="46"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="45"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -6283,7 +6522,7 @@
       <c r="V115" s="45"/>
       <c r="W115" s="46"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="45"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -6308,7 +6547,7 @@
       <c r="V116" s="45"/>
       <c r="W116" s="46"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -6333,7 +6572,7 @@
       <c r="V117" s="45"/>
       <c r="W117" s="46"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -6358,7 +6597,7 @@
       <c r="V118" s="45"/>
       <c r="W118" s="46"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="45"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
@@ -6383,7 +6622,7 @@
       <c r="V119" s="45"/>
       <c r="W119" s="46"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="45"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
@@ -6408,7 +6647,7 @@
       <c r="V120" s="45"/>
       <c r="W120" s="46"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="45"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
@@ -6433,7 +6672,7 @@
       <c r="V121" s="45"/>
       <c r="W121" s="46"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="45"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
@@ -6458,7 +6697,7 @@
       <c r="V122" s="45"/>
       <c r="W122" s="46"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="45"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
@@ -6483,7 +6722,7 @@
       <c r="V123" s="45"/>
       <c r="W123" s="46"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="45"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
@@ -6508,7 +6747,7 @@
       <c r="V124" s="45"/>
       <c r="W124" s="46"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
@@ -6533,7 +6772,7 @@
       <c r="V125" s="45"/>
       <c r="W125" s="46"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -6558,7 +6797,7 @@
       <c r="V126" s="45"/>
       <c r="W126" s="46"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
@@ -6583,7 +6822,7 @@
       <c r="V127" s="45"/>
       <c r="W127" s="46"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
@@ -6608,7 +6847,7 @@
       <c r="V128" s="45"/>
       <c r="W128" s="46"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
@@ -6633,7 +6872,7 @@
       <c r="V129" s="45"/>
       <c r="W129" s="46"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="45"/>
       <c r="B130" s="45"/>
       <c r="C130" s="45"/>
@@ -6658,7 +6897,7 @@
       <c r="V130" s="45"/>
       <c r="W130" s="46"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="45"/>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
@@ -6683,7 +6922,7 @@
       <c r="V131" s="45"/>
       <c r="W131" s="46"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="45"/>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
@@ -6708,7 +6947,7 @@
       <c r="V132" s="45"/>
       <c r="W132" s="46"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="45"/>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
@@ -6733,7 +6972,7 @@
       <c r="V133" s="45"/>
       <c r="W133" s="46"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="45"/>
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
@@ -6758,7 +6997,7 @@
       <c r="V134" s="45"/>
       <c r="W134" s="46"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="45"/>
       <c r="B135" s="45"/>
       <c r="C135" s="45"/>
@@ -6783,7 +7022,7 @@
       <c r="V135" s="45"/>
       <c r="W135" s="46"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="45"/>
       <c r="B136" s="45"/>
       <c r="C136" s="45"/>
@@ -6804,7 +7043,7 @@
       <c r="R136" s="46"/>
       <c r="W136" s="46"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
       <c r="C137" s="45"/>
@@ -6825,7 +7064,7 @@
       <c r="R137" s="46"/>
       <c r="W137" s="46"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
       <c r="C138" s="45"/>
@@ -6846,7 +7085,7 @@
       <c r="R138" s="46"/>
       <c r="W138" s="46"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="45"/>
       <c r="B139" s="45"/>
       <c r="C139" s="45"/>
@@ -6867,7 +7106,7 @@
       <c r="R139" s="46"/>
       <c r="W139" s="46"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="45"/>
       <c r="B140" s="45"/>
       <c r="C140" s="45"/>
@@ -6888,7 +7127,7 @@
       <c r="R140" s="46"/>
       <c r="W140" s="46"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="45"/>
       <c r="B141" s="45"/>
       <c r="C141" s="45"/>
@@ -6909,7 +7148,7 @@
       <c r="R141" s="46"/>
       <c r="W141" s="46"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="45"/>
       <c r="B142" s="45"/>
       <c r="C142" s="45"/>
@@ -6930,7 +7169,7 @@
       <c r="R142" s="46"/>
       <c r="W142" s="46"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
       <c r="C143" s="45"/>
@@ -6951,7 +7190,7 @@
       <c r="R143" s="46"/>
       <c r="W143" s="46"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
       <c r="C144" s="45"/>
@@ -6972,7 +7211,7 @@
       <c r="R144" s="46"/>
       <c r="W144" s="46"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
       <c r="C145" s="45"/>
@@ -6993,7 +7232,7 @@
       <c r="R145" s="46"/>
       <c r="W145" s="46"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
       <c r="C146" s="45"/>
@@ -7014,7 +7253,7 @@
       <c r="R146" s="46"/>
       <c r="W146" s="46"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
       <c r="C147" s="45"/>
@@ -7035,7 +7274,7 @@
       <c r="R147" s="46"/>
       <c r="W147" s="46"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
       <c r="C148" s="45"/>
@@ -7056,7 +7295,7 @@
       <c r="R148" s="46"/>
       <c r="W148" s="46"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
       <c r="C149" s="45"/>
@@ -7077,7 +7316,7 @@
       <c r="R149" s="46"/>
       <c r="W149" s="46"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
       <c r="C150" s="45"/>
@@ -7098,7 +7337,7 @@
       <c r="R150" s="46"/>
       <c r="W150" s="46"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
       <c r="C151" s="45"/>
@@ -7119,7 +7358,7 @@
       <c r="R151" s="46"/>
       <c r="W151" s="46"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
       <c r="C152" s="45"/>
@@ -7140,7 +7379,7 @@
       <c r="R152" s="46"/>
       <c r="W152" s="46"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
       <c r="C153" s="45"/>
@@ -7161,7 +7400,7 @@
       <c r="R153" s="46"/>
       <c r="W153" s="46"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
       <c r="C154" s="45"/>
@@ -7182,7 +7421,7 @@
       <c r="R154" s="46"/>
       <c r="W154" s="46"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
       <c r="C155" s="45"/>
@@ -7203,7 +7442,7 @@
       <c r="R155" s="46"/>
       <c r="W155" s="46"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
       <c r="C156" s="45"/>
@@ -7224,7 +7463,7 @@
       <c r="R156" s="46"/>
       <c r="W156" s="46"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
       <c r="C157" s="45"/>
@@ -7245,7 +7484,7 @@
       <c r="R157" s="46"/>
       <c r="W157" s="46"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
       <c r="C158" s="45"/>
@@ -7266,7 +7505,7 @@
       <c r="R158" s="46"/>
       <c r="W158" s="46"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
       <c r="C159" s="45"/>
@@ -7287,7 +7526,7 @@
       <c r="R159" s="46"/>
       <c r="W159" s="46"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
       <c r="C160" s="45"/>
@@ -7308,7 +7547,7 @@
       <c r="R160" s="46"/>
       <c r="W160" s="46"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
       <c r="C161" s="45"/>
@@ -7329,7 +7568,7 @@
       <c r="R161" s="46"/>
       <c r="W161" s="46"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
       <c r="C162" s="45"/>
@@ -7350,7 +7589,7 @@
       <c r="R162" s="46"/>
       <c r="W162" s="46"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
       <c r="C163" s="45"/>
@@ -7371,7 +7610,7 @@
       <c r="R163" s="46"/>
       <c r="W163" s="46"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
@@ -7392,7 +7631,7 @@
       <c r="R164" s="46"/>
       <c r="W164" s="46"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
       <c r="C165" s="45"/>
@@ -7413,7 +7652,7 @@
       <c r="R165" s="46"/>
       <c r="W165" s="46"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
       <c r="C166" s="45"/>
@@ -7434,7 +7673,7 @@
       <c r="R166" s="46"/>
       <c r="W166" s="46"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
       <c r="C167" s="45"/>
@@ -7455,7 +7694,7 @@
       <c r="R167" s="46"/>
       <c r="W167" s="46"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
       <c r="C168" s="45"/>
@@ -7476,7 +7715,7 @@
       <c r="R168" s="46"/>
       <c r="W168" s="46"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="45"/>
@@ -7497,7 +7736,7 @@
       <c r="R169" s="46"/>
       <c r="W169" s="46"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
       <c r="C170" s="45"/>
@@ -7542,7 +7781,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I10 G1:G10 G14:G1048576 I14:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 I14:I1048576 G14:G1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7556,6 +7795,8 @@
     <hyperlink ref="S15" r:id="rId7"/>
     <hyperlink ref="S16" r:id="rId8"/>
     <hyperlink ref="S17" r:id="rId9"/>
+    <hyperlink ref="S18" r:id="rId10"/>
+    <hyperlink ref="S19" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7563,35 +7804,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="56.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
     <col min="13" max="13" width="59.5" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -7647,7 +7888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="85" t="s">
         <v>119</v>
       </c>
@@ -7697,7 +7938,7 @@
       </c>
       <c r="R2" s="90"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="85" t="s">
         <v>134</v>
       </c>
@@ -7749,7 +7990,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="33">
       <c r="A4" s="85" t="s">
         <v>171</v>
       </c>
@@ -7801,7 +8042,7 @@
       </c>
       <c r="R4" s="90"/>
     </row>
-    <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="33">
       <c r="A5" s="85" t="s">
         <v>186</v>
       </c>
@@ -7853,7 +8094,7 @@
       </c>
       <c r="R5" s="90"/>
     </row>
-    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="33">
       <c r="A6" s="85" t="s">
         <v>186</v>
       </c>
@@ -7905,7 +8146,7 @@
       </c>
       <c r="R6" s="90"/>
     </row>
-    <row r="7" spans="1:18" ht="409" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="409.5">
       <c r="A7" s="85" t="s">
         <v>199</v>
       </c>
@@ -7959,7 +8200,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="82.5">
       <c r="A8" s="12" t="s">
         <v>282</v>
       </c>
@@ -8013,7 +8254,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="82.5">
       <c r="A9" s="12" t="s">
         <v>282</v>
       </c>
@@ -8067,7 +8308,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="82.5">
       <c r="A10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8121,7 +8362,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="82.5">
       <c r="A11" s="12" t="s">
         <v>300</v>
       </c>
@@ -8177,7 +8418,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="82.5">
       <c r="A12" s="12" t="s">
         <v>282</v>
       </c>
@@ -8233,7 +8474,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="82.5">
       <c r="A13" s="12" t="s">
         <v>282</v>
       </c>
@@ -8289,7 +8530,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="82.5">
       <c r="A14" s="12" t="s">
         <v>282</v>
       </c>
@@ -8345,46 +8586,46 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="27">
       <c r="A15" s="85"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="142" t="s">
+      <c r="I15" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="J15" s="143" t="s">
+      <c r="J15" s="134" t="s">
         <v>336</v>
       </c>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143" t="s">
+      <c r="K15" s="134"/>
+      <c r="L15" s="134" t="s">
         <v>337</v>
       </c>
-      <c r="M15" s="145" t="s">
+      <c r="M15" s="136" t="s">
         <v>338</v>
       </c>
-      <c r="N15" s="143" t="s">
+      <c r="N15" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="O15" s="144" t="s">
+      <c r="O15" s="135" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8395,41 +8636,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -8464,9 +8705,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8477,9 +8718,9 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="137"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="140"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -8490,9 +8731,9 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8503,9 +8744,9 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="141"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -8516,9 +8757,9 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8529,9 +8770,9 @@
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -8542,9 +8783,9 @@
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8555,9 +8796,9 @@
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8568,7 +8809,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -8595,61 +8836,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8690,7 +8931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="114">
         <v>1</v>
       </c>
@@ -8727,7 +8968,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="114">
         <v>2</v>
       </c>
@@ -8764,7 +9005,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="330">
       <c r="A6" s="114">
         <v>3</v>
       </c>
@@ -8805,7 +9046,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="148.5">
       <c r="A7" s="114">
         <v>4</v>
       </c>
@@ -8846,7 +9087,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="114">
         <v>5</v>
       </c>
@@ -8887,7 +9128,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="114">
         <v>6</v>
       </c>
@@ -8928,7 +9169,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="114">
         <v>7</v>
       </c>
@@ -8969,7 +9210,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="33">
       <c r="A11" s="114">
         <v>9</v>
       </c>
@@ -9010,7 +9251,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9025,7 +9266,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9040,7 +9281,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9055,7 +9296,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9070,7 +9311,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9109,61 +9350,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9204,7 +9445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>244</v>
@@ -9239,7 +9480,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>244</v>
@@ -9274,7 +9515,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -9313,7 +9554,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="33">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -9352,7 +9593,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -9367,7 +9608,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9382,7 +9623,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9397,7 +9638,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9412,7 +9653,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9427,7 +9668,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9442,7 +9683,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9457,7 +9698,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9472,7 +9713,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9508,61 +9749,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9603,7 +9844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>264</v>
@@ -9638,7 +9879,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>264</v>
@@ -9673,7 +9914,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -9712,7 +9953,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="33">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -9751,7 +9992,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -9766,7 +10007,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9781,7 +10022,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9796,7 +10037,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9811,7 +10052,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9826,7 +10067,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9841,7 +10082,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9856,7 +10097,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9871,7 +10112,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9907,63 +10148,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="145"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -10004,7 +10245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>211</v>
@@ -10039,7 +10280,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>211</v>
@@ -10074,7 +10315,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -10113,7 +10354,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="33">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -10152,7 +10393,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -10167,7 +10408,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10182,7 +10423,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10197,7 +10438,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10212,7 +10453,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10227,7 +10468,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10242,7 +10483,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10257,7 +10498,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10272,7 +10513,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10308,25 +10549,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -10352,7 +10593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10362,7 +10603,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -10372,7 +10613,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -10382,7 +10623,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -10392,7 +10633,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10402,7 +10643,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10412,7 +10653,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10422,7 +10663,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10432,7 +10673,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10442,7 +10683,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10452,7 +10693,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10462,7 +10703,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10472,7 +10713,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10482,7 +10723,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10492,7 +10733,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10502,7 +10743,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10512,7 +10753,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10522,7 +10763,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.7 20170406/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="645" windowWidth="50355" windowHeight="14580"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="364">
   <si>
     <t>No</t>
   </si>
@@ -1509,12 +1514,52 @@
   <si>
     <t>FYPX-17</t>
   </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>forupdate和支付解耦</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter partner/pc papp payapi lts tp bs</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter partner/pc papp payapi lts tp bs</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存泄露问题</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3201</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-1082</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1739,29 +1784,32 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2073,7 +2121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2487,6 +2535,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2514,35 +2592,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2559,7 +2616,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
@@ -2918,40 +2975,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="36" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="36" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="37" customWidth="1"/>
     <col min="5" max="5" width="15" style="36" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="37" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="36" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="36" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="36" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="36" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="36" customWidth="1"/>
     <col min="16" max="16" width="10" style="37" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="37" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="37" customWidth="1"/>
     <col min="19" max="20" width="12" style="38" customWidth="1"/>
     <col min="21" max="21" width="17" style="38" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="38" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="37" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="38" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="37" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="34" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -3084,7 +3141,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="59"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -3146,7 +3203,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="59"/>
     </row>
-    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -3208,7 +3265,7 @@
       <c r="W4" s="58"/>
       <c r="X4" s="59"/>
     </row>
-    <row r="5" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="5" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -3270,7 +3327,7 @@
       <c r="W5" s="60"/>
       <c r="X5" s="59"/>
     </row>
-    <row r="6" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -3332,7 +3389,7 @@
       <c r="W6" s="60"/>
       <c r="X6" s="59"/>
     </row>
-    <row r="7" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -3394,7 +3451,7 @@
       <c r="W7" s="60"/>
       <c r="X7" s="59"/>
     </row>
-    <row r="8" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -3456,7 +3513,7 @@
       <c r="W8" s="60"/>
       <c r="X8" s="59"/>
     </row>
-    <row r="9" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -3518,7 +3575,7 @@
       <c r="W9" s="60"/>
       <c r="X9" s="59"/>
     </row>
-    <row r="10" spans="1:24" s="35" customFormat="1" ht="49.5">
+    <row r="10" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -3580,7 +3637,7 @@
       <c r="W10" s="60"/>
       <c r="X10" s="59"/>
     </row>
-    <row r="11" spans="1:24" s="35" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>10</v>
       </c>
@@ -3640,7 +3697,7 @@
       <c r="W11" s="60"/>
       <c r="X11" s="59"/>
     </row>
-    <row r="12" spans="1:24" s="35" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>11</v>
       </c>
@@ -3702,7 +3759,7 @@
       <c r="W12" s="60"/>
       <c r="X12" s="59"/>
     </row>
-    <row r="13" spans="1:24" s="35" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>12</v>
       </c>
@@ -3762,7 +3819,7 @@
       <c r="W13" s="60"/>
       <c r="X13" s="59"/>
     </row>
-    <row r="14" spans="1:24" s="35" customFormat="1" ht="49.5">
+    <row r="14" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -3822,7 +3879,7 @@
       <c r="W14" s="60"/>
       <c r="X14" s="59"/>
     </row>
-    <row r="15" spans="1:24" s="35" customFormat="1" ht="16.5">
+    <row r="15" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="64">
         <v>14</v>
       </c>
@@ -3882,7 +3939,7 @@
       <c r="W15" s="60"/>
       <c r="X15" s="59"/>
     </row>
-    <row r="16" spans="1:24" s="35" customFormat="1" ht="16.5">
+    <row r="16" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="64">
         <v>15</v>
       </c>
@@ -3942,7 +3999,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="59"/>
     </row>
-    <row r="17" spans="1:24" s="35" customFormat="1" ht="33">
+    <row r="17" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="64">
         <v>16</v>
       </c>
@@ -3998,181 +4055,253 @@
       <c r="W17" s="61"/>
       <c r="X17" s="59"/>
     </row>
-    <row r="18" spans="1:24" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="146">
+    <row r="18" spans="1:24" s="146" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="137">
         <v>17</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="147" t="s">
+      <c r="D18" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="148" t="s">
+      <c r="F18" s="139" t="s">
         <v>341</v>
       </c>
-      <c r="G18" s="148" t="s">
+      <c r="G18" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="149">
+      <c r="H18" s="140">
         <v>42831</v>
       </c>
-      <c r="I18" s="148" t="s">
+      <c r="I18" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="149">
+      <c r="J18" s="140">
         <v>42831</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="150" t="s">
+      <c r="K18" s="139"/>
+      <c r="L18" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="M18" s="148" t="s">
+      <c r="M18" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="N18" s="148" t="s">
+      <c r="N18" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="148" t="s">
+      <c r="O18" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="P18" s="150" t="s">
+      <c r="P18" s="141" t="s">
         <v>345</v>
       </c>
-      <c r="Q18" s="149">
+      <c r="Q18" s="140">
         <v>42831</v>
       </c>
-      <c r="R18" s="150" t="s">
+      <c r="R18" s="141" t="s">
         <v>346</v>
       </c>
-      <c r="S18" s="151" t="s">
+      <c r="S18" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="T18" s="151"/>
-      <c r="U18" s="152"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="143"/>
       <c r="V18" s="53"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="154"/>
-    </row>
-    <row r="19" spans="1:24" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="146">
+      <c r="W18" s="144"/>
+      <c r="X18" s="145"/>
+    </row>
+    <row r="19" spans="1:24" s="146" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="137">
         <v>18</v>
       </c>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="147" t="s">
+      <c r="D19" s="138" t="s">
         <v>348</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="E19" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="148" t="s">
+      <c r="F19" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="G19" s="148" t="s">
+      <c r="G19" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="149">
+      <c r="H19" s="140">
         <v>42829</v>
       </c>
-      <c r="I19" s="148" t="s">
+      <c r="I19" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="149">
+      <c r="J19" s="140">
         <v>42829</v>
       </c>
-      <c r="K19" s="148"/>
-      <c r="L19" s="150" t="s">
+      <c r="K19" s="139"/>
+      <c r="L19" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="M19" s="148" t="s">
+      <c r="M19" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="N19" s="148" t="s">
+      <c r="N19" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="O19" s="148" t="s">
+      <c r="O19" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="P19" s="150" t="s">
+      <c r="P19" s="141" t="s">
         <v>345</v>
       </c>
-      <c r="Q19" s="149">
+      <c r="Q19" s="140">
         <v>42831</v>
       </c>
-      <c r="R19" s="150" t="s">
+      <c r="R19" s="141" t="s">
         <v>346</v>
       </c>
-      <c r="S19" s="151" t="s">
+      <c r="S19" s="142" t="s">
         <v>353</v>
       </c>
-      <c r="T19" s="151"/>
-      <c r="U19" s="152"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="143"/>
       <c r="V19" s="53"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="154"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="45"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="145"/>
+    </row>
+    <row r="20" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+      <c r="A20" s="137">
+        <v>19</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="83">
+        <v>42830</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="83">
+        <v>42830</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="N20" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="156" t="s">
+        <v>362</v>
+      </c>
+      <c r="P20" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="83">
+        <v>42830</v>
+      </c>
+      <c r="R20" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>363</v>
+      </c>
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="46"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="158"/>
+    </row>
+    <row r="21" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+      <c r="A21" s="137">
+        <v>20</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="83">
+        <v>42832</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="83">
+        <v>42832</v>
+      </c>
       <c r="K21" s="47"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="45"/>
+      <c r="L21" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="83">
+        <v>42832</v>
+      </c>
+      <c r="R21" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>361</v>
+      </c>
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="60"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5">
+      <c r="V21" s="53"/>
+      <c r="W21" s="158"/>
+    </row>
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -4197,7 +4326,7 @@
       <c r="V22" s="45"/>
       <c r="W22" s="60"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5">
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -4222,7 +4351,7 @@
       <c r="V23" s="45"/>
       <c r="W23" s="60"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5">
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -4247,7 +4376,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="62"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5">
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -4272,7 +4401,7 @@
       <c r="V25" s="57"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5">
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="40"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -4297,7 +4426,7 @@
       <c r="V26" s="63"/>
       <c r="W26" s="62"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5">
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -4322,7 +4451,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5">
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -4347,7 +4476,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5">
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -4372,7 +4501,7 @@
       <c r="V29" s="55"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -4397,7 +4526,7 @@
       <c r="V30" s="45"/>
       <c r="W30" s="60"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5">
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -4422,7 +4551,7 @@
       <c r="V31" s="45"/>
       <c r="W31" s="60"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5">
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -4447,7 +4576,7 @@
       <c r="V32" s="45"/>
       <c r="W32" s="60"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4472,7 +4601,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="62"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -4497,7 +4626,7 @@
       <c r="V34" s="45"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -4522,7 +4651,7 @@
       <c r="V35" s="45"/>
       <c r="W35" s="60"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -4547,7 +4676,7 @@
       <c r="V36" s="45"/>
       <c r="W36" s="60"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -4572,7 +4701,7 @@
       <c r="V37" s="45"/>
       <c r="W37" s="60"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -4597,7 +4726,7 @@
       <c r="V38" s="45"/>
       <c r="W38" s="60"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -4622,7 +4751,7 @@
       <c r="V39" s="45"/>
       <c r="W39" s="60"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -4647,7 +4776,7 @@
       <c r="V40" s="45"/>
       <c r="W40" s="60"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -4672,7 +4801,7 @@
       <c r="V41" s="45"/>
       <c r="W41" s="60"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -4697,7 +4826,7 @@
       <c r="V42" s="45"/>
       <c r="W42" s="60"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -4722,7 +4851,7 @@
       <c r="V43" s="45"/>
       <c r="W43" s="60"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -4747,7 +4876,7 @@
       <c r="V44" s="45"/>
       <c r="W44" s="60"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -4772,7 +4901,7 @@
       <c r="V45" s="55"/>
       <c r="W45" s="60"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -4797,7 +4926,7 @@
       <c r="V46" s="55"/>
       <c r="W46" s="60"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -4822,7 +4951,7 @@
       <c r="V47" s="45"/>
       <c r="W47" s="46"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -4847,7 +4976,7 @@
       <c r="V48" s="45"/>
       <c r="W48" s="46"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
@@ -4872,7 +5001,7 @@
       <c r="V49" s="45"/>
       <c r="W49" s="46"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -4897,7 +5026,7 @@
       <c r="V50" s="45"/>
       <c r="W50" s="46"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -4922,7 +5051,7 @@
       <c r="V51" s="45"/>
       <c r="W51" s="46"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -4947,7 +5076,7 @@
       <c r="V52" s="45"/>
       <c r="W52" s="46"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -4972,7 +5101,7 @@
       <c r="V53" s="45"/>
       <c r="W53" s="46"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="45"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -4997,7 +5126,7 @@
       <c r="V54" s="45"/>
       <c r="W54" s="46"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -5022,7 +5151,7 @@
       <c r="V55" s="45"/>
       <c r="W55" s="46"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="45"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
@@ -5047,7 +5176,7 @@
       <c r="V56" s="45"/>
       <c r="W56" s="46"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
@@ -5072,7 +5201,7 @@
       <c r="V57" s="45"/>
       <c r="W57" s="46"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
@@ -5097,7 +5226,7 @@
       <c r="V58" s="45"/>
       <c r="W58" s="46"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -5122,7 +5251,7 @@
       <c r="V59" s="45"/>
       <c r="W59" s="46"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
@@ -5147,7 +5276,7 @@
       <c r="V60" s="45"/>
       <c r="W60" s="46"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
@@ -5172,7 +5301,7 @@
       <c r="V61" s="45"/>
       <c r="W61" s="46"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -5197,7 +5326,7 @@
       <c r="V62" s="45"/>
       <c r="W62" s="46"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -5222,7 +5351,7 @@
       <c r="V63" s="45"/>
       <c r="W63" s="46"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="45"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -5247,7 +5376,7 @@
       <c r="V64" s="45"/>
       <c r="W64" s="46"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -5272,7 +5401,7 @@
       <c r="V65" s="45"/>
       <c r="W65" s="46"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -5297,7 +5426,7 @@
       <c r="V66" s="45"/>
       <c r="W66" s="46"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="45"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -5322,7 +5451,7 @@
       <c r="V67" s="45"/>
       <c r="W67" s="46"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
@@ -5347,7 +5476,7 @@
       <c r="V68" s="45"/>
       <c r="W68" s="46"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
@@ -5372,7 +5501,7 @@
       <c r="V69" s="45"/>
       <c r="W69" s="46"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="45"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -5397,7 +5526,7 @@
       <c r="V70" s="45"/>
       <c r="W70" s="46"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="45"/>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
@@ -5422,7 +5551,7 @@
       <c r="V71" s="45"/>
       <c r="W71" s="46"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="45"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -5447,7 +5576,7 @@
       <c r="V72" s="45"/>
       <c r="W72" s="46"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="45"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
@@ -5472,7 +5601,7 @@
       <c r="V73" s="45"/>
       <c r="W73" s="46"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="45"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -5497,7 +5626,7 @@
       <c r="V74" s="45"/>
       <c r="W74" s="46"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="45"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
@@ -5522,7 +5651,7 @@
       <c r="V75" s="45"/>
       <c r="W75" s="46"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -5547,7 +5676,7 @@
       <c r="V76" s="45"/>
       <c r="W76" s="46"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="45"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
@@ -5572,7 +5701,7 @@
       <c r="V77" s="45"/>
       <c r="W77" s="46"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5">
+    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="45"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -5597,7 +5726,7 @@
       <c r="V78" s="45"/>
       <c r="W78" s="46"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5">
+    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="45"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
@@ -5622,7 +5751,7 @@
       <c r="V79" s="45"/>
       <c r="W79" s="46"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="45"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -5647,7 +5776,7 @@
       <c r="V80" s="45"/>
       <c r="W80" s="46"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="45"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -5672,7 +5801,7 @@
       <c r="V81" s="45"/>
       <c r="W81" s="46"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -5697,7 +5826,7 @@
       <c r="V82" s="45"/>
       <c r="W82" s="46"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="45"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -5722,7 +5851,7 @@
       <c r="V83" s="45"/>
       <c r="W83" s="46"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="45"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -5747,7 +5876,7 @@
       <c r="V84" s="45"/>
       <c r="W84" s="46"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="45"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
@@ -5772,7 +5901,7 @@
       <c r="V85" s="45"/>
       <c r="W85" s="46"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -5797,7 +5926,7 @@
       <c r="V86" s="45"/>
       <c r="W86" s="46"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="45"/>
       <c r="B87" s="45"/>
       <c r="C87" s="45"/>
@@ -5822,7 +5951,7 @@
       <c r="V87" s="45"/>
       <c r="W87" s="46"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -5847,7 +5976,7 @@
       <c r="V88" s="45"/>
       <c r="W88" s="46"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
@@ -5872,7 +6001,7 @@
       <c r="V89" s="45"/>
       <c r="W89" s="46"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="45"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -5897,7 +6026,7 @@
       <c r="V90" s="45"/>
       <c r="W90" s="46"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="45"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
@@ -5922,7 +6051,7 @@
       <c r="V91" s="45"/>
       <c r="W91" s="46"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="45"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -5947,7 +6076,7 @@
       <c r="V92" s="45"/>
       <c r="W92" s="46"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="45"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -5972,7 +6101,7 @@
       <c r="V93" s="45"/>
       <c r="W93" s="46"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="45"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
@@ -5997,7 +6126,7 @@
       <c r="V94" s="45"/>
       <c r="W94" s="46"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
@@ -6022,7 +6151,7 @@
       <c r="V95" s="45"/>
       <c r="W95" s="46"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -6047,7 +6176,7 @@
       <c r="V96" s="45"/>
       <c r="W96" s="46"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -6072,7 +6201,7 @@
       <c r="V97" s="45"/>
       <c r="W97" s="46"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="45"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -6097,7 +6226,7 @@
       <c r="V98" s="45"/>
       <c r="W98" s="46"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="45"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
@@ -6122,7 +6251,7 @@
       <c r="V99" s="45"/>
       <c r="W99" s="46"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -6147,7 +6276,7 @@
       <c r="V100" s="45"/>
       <c r="W100" s="46"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="45"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -6172,7 +6301,7 @@
       <c r="V101" s="45"/>
       <c r="W101" s="46"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -6197,7 +6326,7 @@
       <c r="V102" s="45"/>
       <c r="W102" s="46"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
@@ -6222,7 +6351,7 @@
       <c r="V103" s="45"/>
       <c r="W103" s="46"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="45"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
@@ -6247,7 +6376,7 @@
       <c r="V104" s="45"/>
       <c r="W104" s="46"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="45"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
@@ -6272,7 +6401,7 @@
       <c r="V105" s="45"/>
       <c r="W105" s="46"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="45"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
@@ -6297,7 +6426,7 @@
       <c r="V106" s="45"/>
       <c r="W106" s="46"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="45"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
@@ -6322,7 +6451,7 @@
       <c r="V107" s="45"/>
       <c r="W107" s="46"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="45"/>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -6347,7 +6476,7 @@
       <c r="V108" s="45"/>
       <c r="W108" s="46"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="45"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
@@ -6372,7 +6501,7 @@
       <c r="V109" s="45"/>
       <c r="W109" s="46"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -6397,7 +6526,7 @@
       <c r="V110" s="45"/>
       <c r="W110" s="46"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -6422,7 +6551,7 @@
       <c r="V111" s="45"/>
       <c r="W111" s="46"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="45"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -6447,7 +6576,7 @@
       <c r="V112" s="45"/>
       <c r="W112" s="46"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="45"/>
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
@@ -6472,7 +6601,7 @@
       <c r="V113" s="45"/>
       <c r="W113" s="46"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="45"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
@@ -6497,7 +6626,7 @@
       <c r="V114" s="45"/>
       <c r="W114" s="46"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="45"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -6522,7 +6651,7 @@
       <c r="V115" s="45"/>
       <c r="W115" s="46"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="45"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -6547,7 +6676,7 @@
       <c r="V116" s="45"/>
       <c r="W116" s="46"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -6572,7 +6701,7 @@
       <c r="V117" s="45"/>
       <c r="W117" s="46"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -6597,7 +6726,7 @@
       <c r="V118" s="45"/>
       <c r="W118" s="46"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="45"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
@@ -6622,7 +6751,7 @@
       <c r="V119" s="45"/>
       <c r="W119" s="46"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="45"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
@@ -6647,7 +6776,7 @@
       <c r="V120" s="45"/>
       <c r="W120" s="46"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="45"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
@@ -6672,7 +6801,7 @@
       <c r="V121" s="45"/>
       <c r="W121" s="46"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="45"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
@@ -6697,7 +6826,7 @@
       <c r="V122" s="45"/>
       <c r="W122" s="46"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="45"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
@@ -6722,7 +6851,7 @@
       <c r="V123" s="45"/>
       <c r="W123" s="46"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="45"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
@@ -6747,7 +6876,7 @@
       <c r="V124" s="45"/>
       <c r="W124" s="46"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
@@ -6772,7 +6901,7 @@
       <c r="V125" s="45"/>
       <c r="W125" s="46"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -6797,7 +6926,7 @@
       <c r="V126" s="45"/>
       <c r="W126" s="46"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
@@ -6822,7 +6951,7 @@
       <c r="V127" s="45"/>
       <c r="W127" s="46"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
@@ -6847,7 +6976,7 @@
       <c r="V128" s="45"/>
       <c r="W128" s="46"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
@@ -6872,7 +7001,7 @@
       <c r="V129" s="45"/>
       <c r="W129" s="46"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="45"/>
       <c r="B130" s="45"/>
       <c r="C130" s="45"/>
@@ -6897,7 +7026,7 @@
       <c r="V130" s="45"/>
       <c r="W130" s="46"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="45"/>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
@@ -6922,7 +7051,7 @@
       <c r="V131" s="45"/>
       <c r="W131" s="46"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="45"/>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
@@ -6947,7 +7076,7 @@
       <c r="V132" s="45"/>
       <c r="W132" s="46"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="45"/>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
@@ -6972,7 +7101,7 @@
       <c r="V133" s="45"/>
       <c r="W133" s="46"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="45"/>
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
@@ -6997,7 +7126,7 @@
       <c r="V134" s="45"/>
       <c r="W134" s="46"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="45"/>
       <c r="B135" s="45"/>
       <c r="C135" s="45"/>
@@ -7022,7 +7151,7 @@
       <c r="V135" s="45"/>
       <c r="W135" s="46"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="45"/>
       <c r="B136" s="45"/>
       <c r="C136" s="45"/>
@@ -7043,7 +7172,7 @@
       <c r="R136" s="46"/>
       <c r="W136" s="46"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
       <c r="C137" s="45"/>
@@ -7064,7 +7193,7 @@
       <c r="R137" s="46"/>
       <c r="W137" s="46"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
       <c r="C138" s="45"/>
@@ -7085,7 +7214,7 @@
       <c r="R138" s="46"/>
       <c r="W138" s="46"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="45"/>
       <c r="B139" s="45"/>
       <c r="C139" s="45"/>
@@ -7106,7 +7235,7 @@
       <c r="R139" s="46"/>
       <c r="W139" s="46"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="45"/>
       <c r="B140" s="45"/>
       <c r="C140" s="45"/>
@@ -7127,7 +7256,7 @@
       <c r="R140" s="46"/>
       <c r="W140" s="46"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="45"/>
       <c r="B141" s="45"/>
       <c r="C141" s="45"/>
@@ -7148,7 +7277,7 @@
       <c r="R141" s="46"/>
       <c r="W141" s="46"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="45"/>
       <c r="B142" s="45"/>
       <c r="C142" s="45"/>
@@ -7169,7 +7298,7 @@
       <c r="R142" s="46"/>
       <c r="W142" s="46"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
       <c r="C143" s="45"/>
@@ -7190,7 +7319,7 @@
       <c r="R143" s="46"/>
       <c r="W143" s="46"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
       <c r="C144" s="45"/>
@@ -7211,7 +7340,7 @@
       <c r="R144" s="46"/>
       <c r="W144" s="46"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
       <c r="C145" s="45"/>
@@ -7232,7 +7361,7 @@
       <c r="R145" s="46"/>
       <c r="W145" s="46"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
       <c r="C146" s="45"/>
@@ -7253,7 +7382,7 @@
       <c r="R146" s="46"/>
       <c r="W146" s="46"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
       <c r="C147" s="45"/>
@@ -7274,7 +7403,7 @@
       <c r="R147" s="46"/>
       <c r="W147" s="46"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
       <c r="C148" s="45"/>
@@ -7295,7 +7424,7 @@
       <c r="R148" s="46"/>
       <c r="W148" s="46"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
       <c r="C149" s="45"/>
@@ -7316,7 +7445,7 @@
       <c r="R149" s="46"/>
       <c r="W149" s="46"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
       <c r="C150" s="45"/>
@@ -7337,7 +7466,7 @@
       <c r="R150" s="46"/>
       <c r="W150" s="46"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
       <c r="C151" s="45"/>
@@ -7358,7 +7487,7 @@
       <c r="R151" s="46"/>
       <c r="W151" s="46"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
       <c r="C152" s="45"/>
@@ -7379,7 +7508,7 @@
       <c r="R152" s="46"/>
       <c r="W152" s="46"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
       <c r="C153" s="45"/>
@@ -7400,7 +7529,7 @@
       <c r="R153" s="46"/>
       <c r="W153" s="46"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
       <c r="C154" s="45"/>
@@ -7421,7 +7550,7 @@
       <c r="R154" s="46"/>
       <c r="W154" s="46"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
       <c r="C155" s="45"/>
@@ -7442,7 +7571,7 @@
       <c r="R155" s="46"/>
       <c r="W155" s="46"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
       <c r="C156" s="45"/>
@@ -7463,7 +7592,7 @@
       <c r="R156" s="46"/>
       <c r="W156" s="46"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
       <c r="C157" s="45"/>
@@ -7484,7 +7613,7 @@
       <c r="R157" s="46"/>
       <c r="W157" s="46"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
       <c r="C158" s="45"/>
@@ -7505,7 +7634,7 @@
       <c r="R158" s="46"/>
       <c r="W158" s="46"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
       <c r="C159" s="45"/>
@@ -7526,7 +7655,7 @@
       <c r="R159" s="46"/>
       <c r="W159" s="46"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
       <c r="C160" s="45"/>
@@ -7547,7 +7676,7 @@
       <c r="R160" s="46"/>
       <c r="W160" s="46"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
       <c r="C161" s="45"/>
@@ -7568,7 +7697,7 @@
       <c r="R161" s="46"/>
       <c r="W161" s="46"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
       <c r="C162" s="45"/>
@@ -7589,7 +7718,7 @@
       <c r="R162" s="46"/>
       <c r="W162" s="46"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
       <c r="C163" s="45"/>
@@ -7610,7 +7739,7 @@
       <c r="R163" s="46"/>
       <c r="W163" s="46"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
@@ -7631,7 +7760,7 @@
       <c r="R164" s="46"/>
       <c r="W164" s="46"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
       <c r="C165" s="45"/>
@@ -7652,7 +7781,7 @@
       <c r="R165" s="46"/>
       <c r="W165" s="46"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
       <c r="C166" s="45"/>
@@ -7673,7 +7802,7 @@
       <c r="R166" s="46"/>
       <c r="W166" s="46"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
       <c r="C167" s="45"/>
@@ -7694,7 +7823,7 @@
       <c r="R167" s="46"/>
       <c r="W167" s="46"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
       <c r="C168" s="45"/>
@@ -7715,7 +7844,7 @@
       <c r="R168" s="46"/>
       <c r="W168" s="46"/>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="45"/>
@@ -7736,7 +7865,7 @@
       <c r="R169" s="46"/>
       <c r="W169" s="46"/>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
       <c r="C170" s="45"/>
@@ -7772,7 +7901,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P10 P17:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M14:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M14:M19 M22:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B14:B1048576">
@@ -7781,7 +7910,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 I14:I1048576 G14:G1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 V1:V1048576 G14:G1048576 I14:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7804,35 +7933,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="56.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="25.625" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
     <col min="13" max="13" width="59.5" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -7888,7 +8017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="85" t="s">
         <v>119</v>
       </c>
@@ -7938,7 +8067,7 @@
       </c>
       <c r="R2" s="90"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="85" t="s">
         <v>134</v>
       </c>
@@ -7990,7 +8119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="33">
+    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="85" t="s">
         <v>171</v>
       </c>
@@ -8042,7 +8171,7 @@
       </c>
       <c r="R4" s="90"/>
     </row>
-    <row r="5" spans="1:18" ht="33">
+    <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="85" t="s">
         <v>186</v>
       </c>
@@ -8094,7 +8223,7 @@
       </c>
       <c r="R5" s="90"/>
     </row>
-    <row r="6" spans="1:18" ht="33">
+    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="85" t="s">
         <v>186</v>
       </c>
@@ -8146,7 +8275,7 @@
       </c>
       <c r="R6" s="90"/>
     </row>
-    <row r="7" spans="1:18" ht="409.5">
+    <row r="7" spans="1:18" ht="409" x14ac:dyDescent="0.15">
       <c r="A7" s="85" t="s">
         <v>199</v>
       </c>
@@ -8200,7 +8329,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="82.5">
+    <row r="8" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>282</v>
       </c>
@@ -8254,7 +8383,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="82.5">
+    <row r="9" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>282</v>
       </c>
@@ -8308,7 +8437,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="82.5">
+    <row r="10" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8362,7 +8491,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="82.5">
+    <row r="11" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>300</v>
       </c>
@@ -8418,7 +8547,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="82.5">
+    <row r="12" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>282</v>
       </c>
@@ -8474,7 +8603,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="82.5">
+    <row r="13" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>282</v>
       </c>
@@ -8530,7 +8659,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="82.5">
+    <row r="14" spans="1:18" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>282</v>
       </c>
@@ -8586,7 +8715,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="85"/>
       <c r="B15" s="133" t="s">
         <v>172</v>
@@ -8636,41 +8765,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -8705,9 +8834,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8718,9 +8847,9 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="141"/>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="150"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -8731,9 +8860,9 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8744,9 +8873,9 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -8757,9 +8886,9 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8770,9 +8899,9 @@
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="151"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -8783,9 +8912,9 @@
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="151"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8796,9 +8925,9 @@
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="150"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8809,7 +8938,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -8836,61 +8965,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="155"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8931,7 +9060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="114">
         <v>1</v>
       </c>
@@ -8968,7 +9097,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="33">
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="114">
         <v>2</v>
       </c>
@@ -9005,7 +9134,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="330">
+    <row r="6" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A6" s="114">
         <v>3</v>
       </c>
@@ -9046,7 +9175,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="148.5">
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.15">
       <c r="A7" s="114">
         <v>4</v>
       </c>
@@ -9087,7 +9216,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="114">
         <v>5</v>
       </c>
@@ -9128,7 +9257,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="114">
         <v>6</v>
       </c>
@@ -9169,7 +9298,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="114">
         <v>7</v>
       </c>
@@ -9210,7 +9339,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="33">
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" s="114">
         <v>9</v>
       </c>
@@ -9251,7 +9380,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9266,7 +9395,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9281,7 +9410,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9296,7 +9425,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9311,7 +9440,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9350,61 +9479,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="155"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9445,7 +9574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>244</v>
@@ -9480,7 +9609,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="33">
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>244</v>
@@ -9515,7 +9644,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -9554,7 +9683,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="33">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -9593,7 +9722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -9608,7 +9737,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9623,7 +9752,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9638,7 +9767,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9653,7 +9782,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9668,7 +9797,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9683,7 +9812,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9698,7 +9827,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9713,7 +9842,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9749,61 +9878,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="155"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9844,7 +9973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>264</v>
@@ -9879,7 +10008,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="33">
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>264</v>
@@ -9914,7 +10043,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -9953,7 +10082,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="33">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -9992,7 +10121,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -10007,7 +10136,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10022,7 +10151,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10037,7 +10166,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10052,7 +10181,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10067,7 +10196,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10082,7 +10211,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10097,7 +10226,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10112,7 +10241,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10148,63 +10277,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="145"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="155"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -10245,7 +10374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>211</v>
@@ -10280,7 +10409,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>211</v>
@@ -10315,7 +10444,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -10354,7 +10483,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="33">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -10393,7 +10522,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -10408,7 +10537,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10423,7 +10552,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10438,7 +10567,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10453,7 +10582,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10468,7 +10597,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10483,7 +10612,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10498,7 +10627,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10513,7 +10642,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10549,25 +10678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -10593,7 +10722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10603,7 +10732,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -10613,7 +10742,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -10623,7 +10752,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -10633,7 +10762,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10643,7 +10772,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10653,7 +10782,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10663,7 +10792,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10673,7 +10802,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10683,7 +10812,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10693,7 +10822,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10703,7 +10832,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10713,7 +10842,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10723,7 +10852,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10733,7 +10862,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10743,7 +10872,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10753,7 +10882,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10763,7 +10892,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="440" yWindow="1040" windowWidth="23380" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="369">
   <si>
     <t>No</t>
   </si>
@@ -1554,12 +1554,27 @@
     <t>TOPT-1082</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>增加查询Idfa的接口</t>
+  </si>
+  <si>
+    <t>renterApp</t>
+  </si>
+  <si>
+    <t>黄展明</t>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>FN-797</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1808,6 +1823,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2121,7 +2143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2565,6 +2587,15 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2592,14 +2623,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2978,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4220,7 +4251,7 @@
       <c r="N20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="156" t="s">
+      <c r="O20" s="147" t="s">
         <v>362</v>
       </c>
       <c r="P20" s="66" t="s">
@@ -4229,7 +4260,7 @@
       <c r="Q20" s="83">
         <v>42830</v>
       </c>
-      <c r="R20" s="157" t="s">
+      <c r="R20" s="148" t="s">
         <v>79</v>
       </c>
       <c r="S20" s="45" t="s">
@@ -4238,7 +4269,7 @@
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="53"/>
-      <c r="W20" s="158"/>
+      <c r="W20" s="149"/>
     </row>
     <row r="21" spans="1:24" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="137">
@@ -4290,7 +4321,7 @@
       <c r="Q21" s="83">
         <v>42832</v>
       </c>
-      <c r="R21" s="157" t="s">
+      <c r="R21" s="148" t="s">
         <v>79</v>
       </c>
       <c r="S21" s="45" t="s">
@@ -4299,31 +4330,61 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="53"/>
-      <c r="W21" s="158"/>
+      <c r="W21" s="149"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
+      <c r="A22" s="93">
+        <v>21</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="159" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>365</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="160">
+        <v>42831</v>
+      </c>
+      <c r="I22" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="160">
+        <v>42831</v>
+      </c>
+      <c r="K22" s="97"/>
+      <c r="L22" s="99" t="s">
+        <v>366</v>
+      </c>
+      <c r="M22" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="N22" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="97"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="161" t="s">
+        <v>368</v>
+      </c>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
       <c r="W22" s="60"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
@@ -7889,28 +7950,28 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R17:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R10 R17:R21 R23:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N10 N17:N79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N10 N17:N21 N23:N79">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E10 E14:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E10 E14:E21 E23:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P10 P17:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P10 P17:P21 P23:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M14:M19 M22:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M14:M19 M23:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B14:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B14:B21 B23:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C21 C23:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 V1:V1048576 G14:G1048576 I14:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 G23:G1048576 I23:I1048576 I14:I21 G14:G21 V1:V21 V23:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8785,19 +8846,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -8835,8 +8896,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8848,8 +8909,8 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -8861,8 +8922,8 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8874,8 +8935,8 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="151"/>
-      <c r="B6" s="151"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -8887,8 +8948,8 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8900,8 +8961,8 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="151"/>
-      <c r="B8" s="151"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -8913,8 +8974,8 @@
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="151"/>
-      <c r="B9" s="151"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8926,8 +8987,8 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="150"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8988,36 +9049,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="155"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9502,36 +9563,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="155"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9901,36 +9962,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="155"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -10302,36 +10363,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="155"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.7 20170406/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.7 20170406/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1040" windowWidth="23380" windowHeight="11340"/>
+    <workbookView xWindow="440" yWindow="1040" windowWidth="28360" windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="401">
   <si>
     <t>No</t>
   </si>
@@ -1568,6 +1568,187 @@
   </si>
   <si>
     <t>FN-797</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zegn</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter.sysconfig.zhima.zhima_appId=1001708
+filter.sysconfig.zhima.zhima_private_key=MIIEvgIBADANBgkqhkiG9w0BAQEFAASCBKgwggSkAgEAAoIBAQDMbf0SF0fgenwQKEUX0bPVv1VXkC/36JGvyA2ZZpMhIxLSbXmutS0Fbm3XUfWhHlz3O6b2BmRRaFDsImMUK5LivBesdtZOdSQLQ/+XSJOuRHy6B16JkoIshLkSJT28lnVnXZmgySxY+rEiwNPxxj20duv4FQPgYTDK/vcSdsPLISp0Xu7+ESen5/fo5JS2lXaXfgsQb+N3Lm9zOBXa2yJnDANSGQ1znwiKrwk2YSjxolrRtWUrHUksarmtcJSv841FyvQVajV6j8kM2CgkARjDKnZEGnzsOgKfVD85KJw6s5G4e3656EVnrjA0asah5BVCjdyDTBPMHM7M6QLqyZKJAgMBAAECggEBALuWqkUxi8lXXATPjydeTLF1k3B4ZSwOA7HT13bOg3BC6QCjaKeCpT94p96P3N/uJszPtlPIZcG2AZvNqjFWEsFwbCDcI6d3Io4b5awC81FUk0d5f6yp/j2vxMv71Hz7a9xgLZs3PzSfRnBnlZUknna9MadCUX5ScR21fS86QExiDNfxcYRE0viqUG2LiwfrtRvi3eMUZPXPcJmilNxbGOGF490ucgKcUQqi8kbqLRllgavf/p1lmyrS77Dw6kkQIM6YpLO4nR8wTHWoyi625UCAjE1VJUWVsdGH3BzZj/pKXmwkGFDiq7073JclTvOS1TqAxNse+h50h4BqFWKaaikCgYEA6EORivrbL88HhhEGVdiNxYBdwkACoLcgYx75kzltxU0vL2EFzwsuBbr+AzhVQeteEeeVp0vJtlyThORyxosuanLwimnv2AMcbzo52AoputurkxZtgziE5WCrO5A7s8avsEi6NcrXT19+Gilf9Cssq9I+vVu7C0s4TctsYQljJYsCgYEA4VI54Az1Jc58B2NMSIqMsG++8Gy0OzBq7EUtpqPG9Qa6mvAEpWlO90nDACTeBZLaC7Hd1au/zELGnoSW4JWilnirWgupJzE5HklHG3IMNAtzOFvoX46xr4xiNPodK0CxWpFqi3tPIDWizRfQNooEnqKtKtX9DOhSyo+D2CcYMrsCgYAYYf+Fd5BLFJDVojPoDzPS6AbvvYiJFrBvt3C74+uCKvgpISZa9fF+6IKCFAffQ7Y8avNq/KnQWyeha9ogvbvBsQ9PeI+VPb5ebt5jr61x0F3SsygL/oL1EZDoT9v0o4cOGpRx0TmJO50hYfaQy3eFEi1D871PEjZ29EQMa8/cwQKBgQCvUHsXiP11XSPD288O4j51SX0XNH1HUHThQTIz5lp3a7TluLrkuPtoDUxcYFMfoxNk5g/koK2rEInZ7PA37jWDPoCUn14N0I7QsdNR13sHQ6FyyJAVScGXBXOkJLdtX/ier2ZnAJqgRRtW2KB4zwqpI4n5OmaaFGnWkbPUCxcY4QKBgEay2X6WJ+d2QizMv6QOtSz1nmg5nsKAdLcQHO0ir02BlRp8yFBA8nnbJGyNUH0DHjB1dvDaGGna/Zd2u0TT5VRr4cKcvM8vYHwGabPcPLmjsvSxiyNmUvYMNHFtOZFmBp+jVx0upA5iy448e0Dn1GZN2ZvAk5cziTzx3xMerRM9
+filter.sysconfig.zhima.zhima_public_key=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAshVdeYHvFwZdF08NUVYe+PqGA+QiUBLdf4w7XDMVOQDSXFmkk6zxRRlHZ97OS/NuajlayX2LTjDdPf/omkWXLqHoxHKlimeiLUvb/8KqkiOeExF1d6zlbOzcIoafxC6dzrFckVYLEWbiEGlSDgxOxU3Q8QuDbwosRCMRMDP6vZLrr6HKtAcyfQ5ZyDrAJd2hN4eeJF/6GbP9rdBf43KYaCyDH8FWciw4oCA3i17KXr81eRlNEGaDQ9DiROFGR2QDAVuzdD0NYBDBxUaTw/4B+I+Y1iqb0EU4PqAOaDjpwn0NOXoW+ARlKNDVQOXSHQI1PSxcBOW61AdLRU4GHSYfNQIDAQAB
+filter.sysconfig.zhima.zhima_score_productId=w1010100100000000001
+filter.sysconfig.zhima.zhima_gatewayUrl=https://zmopenapi.zmxy.com.cn/openapi.do
+filter.sysconfig.zhima.zhima_channel=api
+filter.sysconfig.zhima.zhima_platForm=zmop</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻信用足迹</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'ji</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>5.3.7</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie bao zu</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心菜单不全</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn'xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'quan</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨菲</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fe</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>许倩</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qian</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3082</t>
+  </si>
+  <si>
+    <t>58增加3个端口</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS,定时器</t>
+    <rPh sb="3" eb="4">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑铃</t>
+    <rPh sb="0" eb="1">
+      <t>ya'ling</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3107</t>
+  </si>
+  <si>
+    <t>房源图片上传编辑</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>重楼</t>
+    <rPh sb="0" eb="1">
+      <t>chong'l</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3025</t>
+  </si>
+  <si>
+    <t>隐藏集中式火箭弹窗</t>
+  </si>
+  <si>
+    <t>DV-3076</t>
+  </si>
+  <si>
+    <t>去除付款方式二</t>
+  </si>
+  <si>
+    <t>partnerPC，partnerApp</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3138</t>
+  </si>
+  <si>
+    <t>BS地铁排序</t>
+    <rPh sb="2" eb="3">
+      <t>di'tei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'xu</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2662</t>
+  </si>
+  <si>
+    <t>市场推广网页-PC版</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterPC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'm</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>依然</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ra</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-977</t>
   </si>
 </sst>
 </file>
@@ -2596,6 +2777,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2622,15 +2812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3009,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4342,7 +4523,7 @@
       <c r="C22" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="150" t="s">
         <v>364</v>
       </c>
       <c r="E22" s="97" t="s">
@@ -4354,13 +4535,13 @@
       <c r="G22" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="151">
         <v>42831</v>
       </c>
       <c r="I22" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="160">
+      <c r="J22" s="151">
         <v>42831</v>
       </c>
       <c r="K22" s="97"/>
@@ -4375,189 +4556,441 @@
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="99"/>
-      <c r="Q22" s="160"/>
+      <c r="Q22" s="151"/>
       <c r="R22" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="S22" s="161" t="s">
+      <c r="S22" s="152" t="s">
         <v>368</v>
       </c>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="152"/>
       <c r="W22" s="60"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="A23" s="137">
+        <v>22</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="48">
+        <v>42826</v>
+      </c>
       <c r="K23" s="47"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
+      <c r="L23" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="M23" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N23" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="P23" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="T23" s="54"/>
       <c r="U23" s="45"/>
       <c r="V23" s="45"/>
       <c r="W23" s="60"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
+      <c r="A24" s="137">
+        <v>23</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="48">
+        <v>42826</v>
+      </c>
       <c r="K24" s="47"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
+      <c r="L24" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="P24" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R24" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S24" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="T24" s="45"/>
       <c r="U24" s="56"/>
       <c r="V24" s="56"/>
       <c r="W24" s="62"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
+      <c r="A25" s="93">
+        <v>24</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="48">
+        <v>42826</v>
+      </c>
       <c r="K25" s="47"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
+      <c r="L25" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="P25" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="T25" s="45"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
       <c r="W25" s="62"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="A26" s="137">
+        <v>25</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="48">
+        <v>42826</v>
+      </c>
       <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
+      <c r="L26" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="P26" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R26" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="T26" s="45"/>
       <c r="U26" s="57"/>
       <c r="V26" s="63"/>
       <c r="W26" s="62"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+    <row r="27" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+      <c r="A27" s="137">
+        <v>26</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="48">
+        <v>42826</v>
+      </c>
       <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
+      <c r="L27" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="M27" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="P27" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="T27" s="45"/>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
+      <c r="A28" s="93">
+        <v>27</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="H28" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="48">
+        <v>42826</v>
+      </c>
       <c r="K28" s="47"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
+      <c r="L28" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="P28" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R28" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="T28" s="45"/>
       <c r="U28" s="57"/>
       <c r="V28" s="57"/>
       <c r="W28" s="62"/>
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="A29" s="137">
+        <v>28</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="48">
+        <v>42826</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="48">
+        <v>42826</v>
+      </c>
       <c r="K29" s="47"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
+      <c r="L29" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="M29" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="P29" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="48">
+        <v>42830</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="T29" s="45"/>
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
       <c r="W29" s="51"/>
@@ -7971,7 +8404,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C21 C23:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 G23:G1048576 I23:I1048576 I14:I21 G14:G21 V1:V21 V23:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 I23:I1048576 V23:V1048576 I14:I21 G14:G21 V1:V21 G23:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7987,6 +8420,13 @@
     <hyperlink ref="S17" r:id="rId9"/>
     <hyperlink ref="S18" r:id="rId10"/>
     <hyperlink ref="S19" r:id="rId11"/>
+    <hyperlink ref="S23" r:id="rId12"/>
+    <hyperlink ref="S24" r:id="rId13"/>
+    <hyperlink ref="S25" r:id="rId14"/>
+    <hyperlink ref="S26" r:id="rId15"/>
+    <hyperlink ref="S27" r:id="rId16"/>
+    <hyperlink ref="S28" r:id="rId17"/>
+    <hyperlink ref="S29" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8846,19 +9286,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -8896,8 +9336,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8909,8 +9349,8 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="153"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -8922,8 +9362,8 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -8935,8 +9375,8 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -8948,8 +9388,8 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8961,8 +9401,8 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -8974,8 +9414,8 @@
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8987,8 +9427,8 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="153"/>
-      <c r="B10" s="153"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9030,7 +9470,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9049,36 +9489,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="159"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9544,7 +9984,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M7"/>
+      <selection activeCell="B8" sqref="B8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9563,36 +10003,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="159"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9783,19 +10223,41 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="114" t="s">
+        <v>231</v>
+      </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -9927,10 +10389,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I8">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F16 F4:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5 F8:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9943,7 +10405,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M7"/>
+      <selection activeCell="L8" sqref="B8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9962,36 +10424,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="159"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -10182,19 +10644,41 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="114" t="s">
+        <v>231</v>
+      </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -10341,8 +10825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10363,36 +10847,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="159"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -10583,19 +11067,41 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="114" t="s">
+        <v>231</v>
+      </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -10727,10 +11233,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I8">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F16 F4:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5 F8:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.7 20170406/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\git\Mogo_Doc\VersionRecords\Version 5.3.7 20170406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1040" windowWidth="28360" windowHeight="16960"/>
+    <workbookView xWindow="435" yWindow="1035" windowWidth="28365" windowHeight="16965"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="408">
   <si>
     <t>No</t>
   </si>
@@ -1750,12 +1750,47 @@
   <si>
     <t>PM-977</t>
   </si>
+  <si>
+    <t>线上回调域名变更</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>payapi</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2975</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>将支付宝 和微信的回调域名 由原来的  pay.api.mogooroom.com 替换为 pay.api.mgzf.com
+weixin_renter_notify_url
+weixin_partner_notify_url
+weixin_offiAccount_notify_url
+zhifubao_notify_url
+zhifubao_refund_notify_url
+zhifubaoNoCredit_notify_url
+zhifubaoNoCredit_refund_notify_url</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>凿空</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换域名</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1986,7 +2021,8 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1998,7 +2034,8 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2324,7 +2361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2812,6 +2849,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2828,8 +2868,8 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3191,36 +3231,36 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="36" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="36" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="37" customWidth="1"/>
     <col min="5" max="5" width="15" style="36" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="36" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="36" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="37" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="36" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="36" customWidth="1"/>
     <col min="16" max="16" width="10" style="37" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="37" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="37" customWidth="1"/>
     <col min="19" max="20" width="12" style="38" customWidth="1"/>
     <col min="21" max="21" width="17" style="38" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="38" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="37" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="38" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="37" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="34" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="34" customFormat="1" ht="27">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -3353,7 +3393,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="59"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -3415,7 +3455,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="59"/>
     </row>
-    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="35" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -3477,7 +3517,7 @@
       <c r="W4" s="58"/>
       <c r="X4" s="59"/>
     </row>
-    <row r="5" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -3539,7 +3579,7 @@
       <c r="W5" s="60"/>
       <c r="X5" s="59"/>
     </row>
-    <row r="6" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -3601,7 +3641,7 @@
       <c r="W6" s="60"/>
       <c r="X6" s="59"/>
     </row>
-    <row r="7" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -3663,7 +3703,7 @@
       <c r="W7" s="60"/>
       <c r="X7" s="59"/>
     </row>
-    <row r="8" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -3725,7 +3765,7 @@
       <c r="W8" s="60"/>
       <c r="X8" s="59"/>
     </row>
-    <row r="9" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -3787,7 +3827,7 @@
       <c r="W9" s="60"/>
       <c r="X9" s="59"/>
     </row>
-    <row r="10" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="35" customFormat="1" ht="49.5">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -3849,7 +3889,7 @@
       <c r="W10" s="60"/>
       <c r="X10" s="59"/>
     </row>
-    <row r="11" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A11" s="64">
         <v>10</v>
       </c>
@@ -3909,7 +3949,7 @@
       <c r="W11" s="60"/>
       <c r="X11" s="59"/>
     </row>
-    <row r="12" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A12" s="64">
         <v>11</v>
       </c>
@@ -3971,7 +4011,7 @@
       <c r="W12" s="60"/>
       <c r="X12" s="59"/>
     </row>
-    <row r="13" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A13" s="64">
         <v>12</v>
       </c>
@@ -4031,7 +4071,7 @@
       <c r="W13" s="60"/>
       <c r="X13" s="59"/>
     </row>
-    <row r="14" spans="1:24" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="35" customFormat="1" ht="49.5">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -4091,7 +4131,7 @@
       <c r="W14" s="60"/>
       <c r="X14" s="59"/>
     </row>
-    <row r="15" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A15" s="64">
         <v>14</v>
       </c>
@@ -4151,7 +4191,7 @@
       <c r="W15" s="60"/>
       <c r="X15" s="59"/>
     </row>
-    <row r="16" spans="1:24" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="35" customFormat="1" ht="16.5">
       <c r="A16" s="64">
         <v>15</v>
       </c>
@@ -4211,7 +4251,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="59"/>
     </row>
-    <row r="17" spans="1:24" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="35" customFormat="1" ht="33">
       <c r="A17" s="64">
         <v>16</v>
       </c>
@@ -4267,7 +4307,7 @@
       <c r="W17" s="61"/>
       <c r="X17" s="59"/>
     </row>
-    <row r="18" spans="1:24" s="146" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="146" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="137">
         <v>17</v>
       </c>
@@ -4329,7 +4369,7 @@
       <c r="W18" s="144"/>
       <c r="X18" s="145"/>
     </row>
-    <row r="19" spans="1:24" s="146" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" s="146" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="137">
         <v>18</v>
       </c>
@@ -4391,7 +4431,7 @@
       <c r="W19" s="144"/>
       <c r="X19" s="145"/>
     </row>
-    <row r="20" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="33">
       <c r="A20" s="137">
         <v>19</v>
       </c>
@@ -4452,7 +4492,7 @@
       <c r="V20" s="53"/>
       <c r="W20" s="149"/>
     </row>
-    <row r="21" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="33">
       <c r="A21" s="137">
         <v>20</v>
       </c>
@@ -4513,7 +4553,7 @@
       <c r="V21" s="53"/>
       <c r="W21" s="149"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="93">
         <v>21</v>
       </c>
@@ -4568,7 +4608,7 @@
       <c r="V22" s="152"/>
       <c r="W22" s="60"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="137">
         <v>22</v>
       </c>
@@ -4629,7 +4669,7 @@
       <c r="V23" s="45"/>
       <c r="W23" s="60"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="137">
         <v>23</v>
       </c>
@@ -4690,7 +4730,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="62"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="93">
         <v>24</v>
       </c>
@@ -4751,7 +4791,7 @@
       <c r="V25" s="57"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="137">
         <v>25</v>
       </c>
@@ -4812,7 +4852,7 @@
       <c r="V26" s="63"/>
       <c r="W26" s="62"/>
     </row>
-    <row r="27" spans="1:24" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="33">
       <c r="A27" s="137">
         <v>26</v>
       </c>
@@ -4873,7 +4913,7 @@
       <c r="V27" s="57"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="93">
         <v>27</v>
       </c>
@@ -4934,7 +4974,7 @@
       <c r="V28" s="57"/>
       <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="137">
         <v>28</v>
       </c>
@@ -4995,32 +5035,69 @@
       <c r="V29" s="55"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
+    <row r="30" spans="1:24" s="35" customFormat="1" ht="16.5">
+      <c r="A30" s="64">
+        <v>29</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="83">
+        <v>42832</v>
+      </c>
+      <c r="I30" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="83">
+        <v>42832</v>
+      </c>
       <c r="K30" s="47"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="45"/>
+      <c r="L30" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="N30" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="83">
+        <v>42832</v>
+      </c>
+      <c r="R30" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" s="45" t="s">
+        <v>403</v>
+      </c>
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="60"/>
-    </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="V30" s="53"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="59"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -5045,7 +5122,7 @@
       <c r="V31" s="45"/>
       <c r="W31" s="60"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -5070,7 +5147,7 @@
       <c r="V32" s="45"/>
       <c r="W32" s="60"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -5095,7 +5172,7 @@
       <c r="V33" s="57"/>
       <c r="W33" s="62"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -5120,7 +5197,7 @@
       <c r="V34" s="45"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5145,7 +5222,7 @@
       <c r="V35" s="45"/>
       <c r="W35" s="60"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -5170,7 +5247,7 @@
       <c r="V36" s="45"/>
       <c r="W36" s="60"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -5195,7 +5272,7 @@
       <c r="V37" s="45"/>
       <c r="W37" s="60"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -5220,7 +5297,7 @@
       <c r="V38" s="45"/>
       <c r="W38" s="60"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -5245,7 +5322,7 @@
       <c r="V39" s="45"/>
       <c r="W39" s="60"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -5270,7 +5347,7 @@
       <c r="V40" s="45"/>
       <c r="W40" s="60"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -5295,7 +5372,7 @@
       <c r="V41" s="45"/>
       <c r="W41" s="60"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -5320,7 +5397,7 @@
       <c r="V42" s="45"/>
       <c r="W42" s="60"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -5345,7 +5422,7 @@
       <c r="V43" s="45"/>
       <c r="W43" s="60"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -5370,7 +5447,7 @@
       <c r="V44" s="45"/>
       <c r="W44" s="60"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -5395,7 +5472,7 @@
       <c r="V45" s="55"/>
       <c r="W45" s="60"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -5420,7 +5497,7 @@
       <c r="V46" s="55"/>
       <c r="W46" s="60"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -5445,7 +5522,7 @@
       <c r="V47" s="45"/>
       <c r="W47" s="46"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -5470,7 +5547,7 @@
       <c r="V48" s="45"/>
       <c r="W48" s="46"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
@@ -5495,7 +5572,7 @@
       <c r="V49" s="45"/>
       <c r="W49" s="46"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -5520,7 +5597,7 @@
       <c r="V50" s="45"/>
       <c r="W50" s="46"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -5545,7 +5622,7 @@
       <c r="V51" s="45"/>
       <c r="W51" s="46"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -5570,7 +5647,7 @@
       <c r="V52" s="45"/>
       <c r="W52" s="46"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -5595,7 +5672,7 @@
       <c r="V53" s="45"/>
       <c r="W53" s="46"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="45"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -5620,7 +5697,7 @@
       <c r="V54" s="45"/>
       <c r="W54" s="46"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -5645,7 +5722,7 @@
       <c r="V55" s="45"/>
       <c r="W55" s="46"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="45"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
@@ -5670,7 +5747,7 @@
       <c r="V56" s="45"/>
       <c r="W56" s="46"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
@@ -5695,7 +5772,7 @@
       <c r="V57" s="45"/>
       <c r="W57" s="46"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="45"/>
       <c r="B58" s="45"/>
       <c r="C58" s="45"/>
@@ -5720,7 +5797,7 @@
       <c r="V58" s="45"/>
       <c r="W58" s="46"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="45"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -5745,7 +5822,7 @@
       <c r="V59" s="45"/>
       <c r="W59" s="46"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="45"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
@@ -5770,7 +5847,7 @@
       <c r="V60" s="45"/>
       <c r="W60" s="46"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
@@ -5795,7 +5872,7 @@
       <c r="V61" s="45"/>
       <c r="W61" s="46"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="45"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -5820,7 +5897,7 @@
       <c r="V62" s="45"/>
       <c r="W62" s="46"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="45"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -5845,7 +5922,7 @@
       <c r="V63" s="45"/>
       <c r="W63" s="46"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="45"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -5870,7 +5947,7 @@
       <c r="V64" s="45"/>
       <c r="W64" s="46"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -5895,7 +5972,7 @@
       <c r="V65" s="45"/>
       <c r="W65" s="46"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="45"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -5920,7 +5997,7 @@
       <c r="V66" s="45"/>
       <c r="W66" s="46"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="45"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -5945,7 +6022,7 @@
       <c r="V67" s="45"/>
       <c r="W67" s="46"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
@@ -5970,7 +6047,7 @@
       <c r="V68" s="45"/>
       <c r="W68" s="46"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="45"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
@@ -5995,7 +6072,7 @@
       <c r="V69" s="45"/>
       <c r="W69" s="46"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="45"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -6020,7 +6097,7 @@
       <c r="V70" s="45"/>
       <c r="W70" s="46"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="45"/>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
@@ -6045,7 +6122,7 @@
       <c r="V71" s="45"/>
       <c r="W71" s="46"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="45"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -6070,7 +6147,7 @@
       <c r="V72" s="45"/>
       <c r="W72" s="46"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="45"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
@@ -6095,7 +6172,7 @@
       <c r="V73" s="45"/>
       <c r="W73" s="46"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="45"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -6120,7 +6197,7 @@
       <c r="V74" s="45"/>
       <c r="W74" s="46"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="45"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
@@ -6145,7 +6222,7 @@
       <c r="V75" s="45"/>
       <c r="W75" s="46"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="45"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -6170,7 +6247,7 @@
       <c r="V76" s="45"/>
       <c r="W76" s="46"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="45"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
@@ -6195,7 +6272,7 @@
       <c r="V77" s="45"/>
       <c r="W77" s="46"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="45"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -6220,7 +6297,7 @@
       <c r="V78" s="45"/>
       <c r="W78" s="46"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="45"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
@@ -6245,7 +6322,7 @@
       <c r="V79" s="45"/>
       <c r="W79" s="46"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="45"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -6270,7 +6347,7 @@
       <c r="V80" s="45"/>
       <c r="W80" s="46"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="45"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -6295,7 +6372,7 @@
       <c r="V81" s="45"/>
       <c r="W81" s="46"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="45"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -6320,7 +6397,7 @@
       <c r="V82" s="45"/>
       <c r="W82" s="46"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="45"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -6345,7 +6422,7 @@
       <c r="V83" s="45"/>
       <c r="W83" s="46"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="45"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -6370,7 +6447,7 @@
       <c r="V84" s="45"/>
       <c r="W84" s="46"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="45"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
@@ -6395,7 +6472,7 @@
       <c r="V85" s="45"/>
       <c r="W85" s="46"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -6420,7 +6497,7 @@
       <c r="V86" s="45"/>
       <c r="W86" s="46"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="45"/>
       <c r="B87" s="45"/>
       <c r="C87" s="45"/>
@@ -6445,7 +6522,7 @@
       <c r="V87" s="45"/>
       <c r="W87" s="46"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -6470,7 +6547,7 @@
       <c r="V88" s="45"/>
       <c r="W88" s="46"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
@@ -6495,7 +6572,7 @@
       <c r="V89" s="45"/>
       <c r="W89" s="46"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="45"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -6520,7 +6597,7 @@
       <c r="V90" s="45"/>
       <c r="W90" s="46"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="45"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
@@ -6545,7 +6622,7 @@
       <c r="V91" s="45"/>
       <c r="W91" s="46"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="45"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
@@ -6570,7 +6647,7 @@
       <c r="V92" s="45"/>
       <c r="W92" s="46"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="45"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
@@ -6595,7 +6672,7 @@
       <c r="V93" s="45"/>
       <c r="W93" s="46"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="45"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
@@ -6620,7 +6697,7 @@
       <c r="V94" s="45"/>
       <c r="W94" s="46"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
@@ -6645,7 +6722,7 @@
       <c r="V95" s="45"/>
       <c r="W95" s="46"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
@@ -6670,7 +6747,7 @@
       <c r="V96" s="45"/>
       <c r="W96" s="46"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -6695,7 +6772,7 @@
       <c r="V97" s="45"/>
       <c r="W97" s="46"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="45"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -6720,7 +6797,7 @@
       <c r="V98" s="45"/>
       <c r="W98" s="46"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="45"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
@@ -6745,7 +6822,7 @@
       <c r="V99" s="45"/>
       <c r="W99" s="46"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="45"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -6770,7 +6847,7 @@
       <c r="V100" s="45"/>
       <c r="W100" s="46"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="45"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -6795,7 +6872,7 @@
       <c r="V101" s="45"/>
       <c r="W101" s="46"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="45"/>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -6820,7 +6897,7 @@
       <c r="V102" s="45"/>
       <c r="W102" s="46"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="45"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
@@ -6845,7 +6922,7 @@
       <c r="V103" s="45"/>
       <c r="W103" s="46"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="45"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
@@ -6870,7 +6947,7 @@
       <c r="V104" s="45"/>
       <c r="W104" s="46"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="45"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
@@ -6895,7 +6972,7 @@
       <c r="V105" s="45"/>
       <c r="W105" s="46"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="45"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
@@ -6920,7 +6997,7 @@
       <c r="V106" s="45"/>
       <c r="W106" s="46"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="45"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
@@ -6945,7 +7022,7 @@
       <c r="V107" s="45"/>
       <c r="W107" s="46"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="45"/>
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
@@ -6970,7 +7047,7 @@
       <c r="V108" s="45"/>
       <c r="W108" s="46"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="45"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
@@ -6995,7 +7072,7 @@
       <c r="V109" s="45"/>
       <c r="W109" s="46"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -7020,7 +7097,7 @@
       <c r="V110" s="45"/>
       <c r="W110" s="46"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -7045,7 +7122,7 @@
       <c r="V111" s="45"/>
       <c r="W111" s="46"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="45"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -7070,7 +7147,7 @@
       <c r="V112" s="45"/>
       <c r="W112" s="46"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="45"/>
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
@@ -7095,7 +7172,7 @@
       <c r="V113" s="45"/>
       <c r="W113" s="46"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="45"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
@@ -7120,7 +7197,7 @@
       <c r="V114" s="45"/>
       <c r="W114" s="46"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="45"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -7145,7 +7222,7 @@
       <c r="V115" s="45"/>
       <c r="W115" s="46"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="45"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -7170,7 +7247,7 @@
       <c r="V116" s="45"/>
       <c r="W116" s="46"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="45"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -7195,7 +7272,7 @@
       <c r="V117" s="45"/>
       <c r="W117" s="46"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="45"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -7220,7 +7297,7 @@
       <c r="V118" s="45"/>
       <c r="W118" s="46"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="45"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
@@ -7245,7 +7322,7 @@
       <c r="V119" s="45"/>
       <c r="W119" s="46"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="45"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
@@ -7270,7 +7347,7 @@
       <c r="V120" s="45"/>
       <c r="W120" s="46"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="45"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
@@ -7295,7 +7372,7 @@
       <c r="V121" s="45"/>
       <c r="W121" s="46"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="45"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
@@ -7320,7 +7397,7 @@
       <c r="V122" s="45"/>
       <c r="W122" s="46"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="45"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
@@ -7345,7 +7422,7 @@
       <c r="V123" s="45"/>
       <c r="W123" s="46"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="45"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
@@ -7370,7 +7447,7 @@
       <c r="V124" s="45"/>
       <c r="W124" s="46"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="45"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
@@ -7395,7 +7472,7 @@
       <c r="V125" s="45"/>
       <c r="W125" s="46"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="45"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -7420,7 +7497,7 @@
       <c r="V126" s="45"/>
       <c r="W126" s="46"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="45"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
@@ -7445,7 +7522,7 @@
       <c r="V127" s="45"/>
       <c r="W127" s="46"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="45"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
@@ -7470,7 +7547,7 @@
       <c r="V128" s="45"/>
       <c r="W128" s="46"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="45"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
@@ -7495,7 +7572,7 @@
       <c r="V129" s="45"/>
       <c r="W129" s="46"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="45"/>
       <c r="B130" s="45"/>
       <c r="C130" s="45"/>
@@ -7520,7 +7597,7 @@
       <c r="V130" s="45"/>
       <c r="W130" s="46"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="45"/>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
@@ -7545,7 +7622,7 @@
       <c r="V131" s="45"/>
       <c r="W131" s="46"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="45"/>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
@@ -7570,7 +7647,7 @@
       <c r="V132" s="45"/>
       <c r="W132" s="46"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="45"/>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
@@ -7595,7 +7672,7 @@
       <c r="V133" s="45"/>
       <c r="W133" s="46"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="45"/>
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
@@ -7620,7 +7697,7 @@
       <c r="V134" s="45"/>
       <c r="W134" s="46"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="45"/>
       <c r="B135" s="45"/>
       <c r="C135" s="45"/>
@@ -7645,7 +7722,7 @@
       <c r="V135" s="45"/>
       <c r="W135" s="46"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="45"/>
       <c r="B136" s="45"/>
       <c r="C136" s="45"/>
@@ -7666,7 +7743,7 @@
       <c r="R136" s="46"/>
       <c r="W136" s="46"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
       <c r="C137" s="45"/>
@@ -7687,7 +7764,7 @@
       <c r="R137" s="46"/>
       <c r="W137" s="46"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
       <c r="C138" s="45"/>
@@ -7708,7 +7785,7 @@
       <c r="R138" s="46"/>
       <c r="W138" s="46"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="45"/>
       <c r="B139" s="45"/>
       <c r="C139" s="45"/>
@@ -7729,7 +7806,7 @@
       <c r="R139" s="46"/>
       <c r="W139" s="46"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="45"/>
       <c r="B140" s="45"/>
       <c r="C140" s="45"/>
@@ -7750,7 +7827,7 @@
       <c r="R140" s="46"/>
       <c r="W140" s="46"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="45"/>
       <c r="B141" s="45"/>
       <c r="C141" s="45"/>
@@ -7771,7 +7848,7 @@
       <c r="R141" s="46"/>
       <c r="W141" s="46"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="45"/>
       <c r="B142" s="45"/>
       <c r="C142" s="45"/>
@@ -7792,7 +7869,7 @@
       <c r="R142" s="46"/>
       <c r="W142" s="46"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="45"/>
       <c r="B143" s="45"/>
       <c r="C143" s="45"/>
@@ -7813,7 +7890,7 @@
       <c r="R143" s="46"/>
       <c r="W143" s="46"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="45"/>
       <c r="B144" s="45"/>
       <c r="C144" s="45"/>
@@ -7834,7 +7911,7 @@
       <c r="R144" s="46"/>
       <c r="W144" s="46"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="45"/>
       <c r="B145" s="45"/>
       <c r="C145" s="45"/>
@@ -7855,7 +7932,7 @@
       <c r="R145" s="46"/>
       <c r="W145" s="46"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="45"/>
       <c r="B146" s="45"/>
       <c r="C146" s="45"/>
@@ -7876,7 +7953,7 @@
       <c r="R146" s="46"/>
       <c r="W146" s="46"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="45"/>
       <c r="B147" s="45"/>
       <c r="C147" s="45"/>
@@ -7897,7 +7974,7 @@
       <c r="R147" s="46"/>
       <c r="W147" s="46"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="45"/>
       <c r="B148" s="45"/>
       <c r="C148" s="45"/>
@@ -7918,7 +7995,7 @@
       <c r="R148" s="46"/>
       <c r="W148" s="46"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="45"/>
       <c r="B149" s="45"/>
       <c r="C149" s="45"/>
@@ -7939,7 +8016,7 @@
       <c r="R149" s="46"/>
       <c r="W149" s="46"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="45"/>
       <c r="B150" s="45"/>
       <c r="C150" s="45"/>
@@ -7960,7 +8037,7 @@
       <c r="R150" s="46"/>
       <c r="W150" s="46"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="45"/>
       <c r="B151" s="45"/>
       <c r="C151" s="45"/>
@@ -7981,7 +8058,7 @@
       <c r="R151" s="46"/>
       <c r="W151" s="46"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="45"/>
       <c r="B152" s="45"/>
       <c r="C152" s="45"/>
@@ -8002,7 +8079,7 @@
       <c r="R152" s="46"/>
       <c r="W152" s="46"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="45"/>
       <c r="B153" s="45"/>
       <c r="C153" s="45"/>
@@ -8023,7 +8100,7 @@
       <c r="R153" s="46"/>
       <c r="W153" s="46"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="45"/>
       <c r="B154" s="45"/>
       <c r="C154" s="45"/>
@@ -8044,7 +8121,7 @@
       <c r="R154" s="46"/>
       <c r="W154" s="46"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="45"/>
       <c r="B155" s="45"/>
       <c r="C155" s="45"/>
@@ -8065,7 +8142,7 @@
       <c r="R155" s="46"/>
       <c r="W155" s="46"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="45"/>
       <c r="B156" s="45"/>
       <c r="C156" s="45"/>
@@ -8086,7 +8163,7 @@
       <c r="R156" s="46"/>
       <c r="W156" s="46"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="45"/>
       <c r="B157" s="45"/>
       <c r="C157" s="45"/>
@@ -8107,7 +8184,7 @@
       <c r="R157" s="46"/>
       <c r="W157" s="46"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="45"/>
       <c r="B158" s="45"/>
       <c r="C158" s="45"/>
@@ -8128,7 +8205,7 @@
       <c r="R158" s="46"/>
       <c r="W158" s="46"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="45"/>
       <c r="B159" s="45"/>
       <c r="C159" s="45"/>
@@ -8149,7 +8226,7 @@
       <c r="R159" s="46"/>
       <c r="W159" s="46"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="45"/>
       <c r="B160" s="45"/>
       <c r="C160" s="45"/>
@@ -8170,7 +8247,7 @@
       <c r="R160" s="46"/>
       <c r="W160" s="46"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="45"/>
       <c r="B161" s="45"/>
       <c r="C161" s="45"/>
@@ -8191,7 +8268,7 @@
       <c r="R161" s="46"/>
       <c r="W161" s="46"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="45"/>
       <c r="B162" s="45"/>
       <c r="C162" s="45"/>
@@ -8212,7 +8289,7 @@
       <c r="R162" s="46"/>
       <c r="W162" s="46"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="45"/>
       <c r="B163" s="45"/>
       <c r="C163" s="45"/>
@@ -8233,7 +8310,7 @@
       <c r="R163" s="46"/>
       <c r="W163" s="46"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="45"/>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
@@ -8254,7 +8331,7 @@
       <c r="R164" s="46"/>
       <c r="W164" s="46"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="45"/>
       <c r="B165" s="45"/>
       <c r="C165" s="45"/>
@@ -8275,7 +8352,7 @@
       <c r="R165" s="46"/>
       <c r="W165" s="46"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="45"/>
       <c r="B166" s="45"/>
       <c r="C166" s="45"/>
@@ -8296,7 +8373,7 @@
       <c r="R166" s="46"/>
       <c r="W166" s="46"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="45"/>
       <c r="B167" s="45"/>
       <c r="C167" s="45"/>
@@ -8317,7 +8394,7 @@
       <c r="R167" s="46"/>
       <c r="W167" s="46"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="45"/>
       <c r="B168" s="45"/>
       <c r="C168" s="45"/>
@@ -8338,7 +8415,7 @@
       <c r="R168" s="46"/>
       <c r="W168" s="46"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="45"/>
       <c r="B169" s="45"/>
       <c r="C169" s="45"/>
@@ -8359,7 +8436,7 @@
       <c r="R169" s="46"/>
       <c r="W169" s="46"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="45"/>
       <c r="B170" s="45"/>
       <c r="C170" s="45"/>
@@ -8395,7 +8472,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P10 P17:P21 P23:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M14:M19 M23:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9 M14:M19 M23:M29 M31:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B10 B14:B21 B23:B1048576">
@@ -8404,7 +8481,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C21 C23:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 I23:I1048576 V23:V1048576 I14:I21 G14:G21 V1:V21 G23:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 G1:G10 I14:I21 G14:G21 V1:V21 G23:G1048576 V23:V1048576 I23:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8437,32 +8514,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="56.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
     <col min="13" max="13" width="59.5" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -8518,7 +8595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="85" t="s">
         <v>119</v>
       </c>
@@ -8568,7 +8645,7 @@
       </c>
       <c r="R2" s="90"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="85" t="s">
         <v>134</v>
       </c>
@@ -8620,7 +8697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="33">
       <c r="A4" s="85" t="s">
         <v>171</v>
       </c>
@@ -8672,7 +8749,7 @@
       </c>
       <c r="R4" s="90"/>
     </row>
-    <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="33">
       <c r="A5" s="85" t="s">
         <v>186</v>
       </c>
@@ -8724,7 +8801,7 @@
       </c>
       <c r="R5" s="90"/>
     </row>
-    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="33">
       <c r="A6" s="85" t="s">
         <v>186</v>
       </c>
@@ -8776,7 +8853,7 @@
       </c>
       <c r="R6" s="90"/>
     </row>
-    <row r="7" spans="1:18" ht="409" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="409.5">
       <c r="A7" s="85" t="s">
         <v>199</v>
       </c>
@@ -8830,7 +8907,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="82.5">
       <c r="A8" s="12" t="s">
         <v>282</v>
       </c>
@@ -8884,7 +8961,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="82.5">
       <c r="A9" s="12" t="s">
         <v>282</v>
       </c>
@@ -8938,7 +9015,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="82.5">
       <c r="A10" s="12" t="s">
         <v>300</v>
       </c>
@@ -8992,7 +9069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="82.5">
       <c r="A11" s="12" t="s">
         <v>300</v>
       </c>
@@ -9048,7 +9125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="82.5">
       <c r="A12" s="12" t="s">
         <v>282</v>
       </c>
@@ -9104,7 +9181,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="82.5">
       <c r="A13" s="12" t="s">
         <v>282</v>
       </c>
@@ -9160,7 +9237,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="82.5">
       <c r="A14" s="12" t="s">
         <v>282</v>
       </c>
@@ -9216,7 +9293,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="27">
       <c r="A15" s="85"/>
       <c r="B15" s="133" t="s">
         <v>172</v>
@@ -9273,19 +9350,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="153" t="s">
         <v>39</v>
       </c>
@@ -9300,7 +9377,7 @@
       <c r="J1" s="154"/>
       <c r="K1" s="154"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -9335,7 +9412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="155"/>
       <c r="B3" s="155"/>
       <c r="C3" s="16"/>
@@ -9348,7 +9425,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="156"/>
       <c r="B4" s="157"/>
       <c r="C4" s="16"/>
@@ -9361,7 +9438,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="155"/>
       <c r="B5" s="155"/>
       <c r="C5" s="16"/>
@@ -9374,7 +9451,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="157"/>
       <c r="B6" s="157"/>
       <c r="C6" s="16"/>
@@ -9387,7 +9464,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="157"/>
       <c r="B7" s="157"/>
       <c r="C7" s="16"/>
@@ -9400,7 +9477,7 @@
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="157"/>
       <c r="B8" s="157"/>
       <c r="C8" s="16"/>
@@ -9413,7 +9490,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="157"/>
       <c r="B9" s="157"/>
       <c r="C9" s="16"/>
@@ -9426,7 +9503,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="156"/>
       <c r="B10" s="156"/>
       <c r="C10" s="16"/>
@@ -9439,7 +9516,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -9470,25 +9547,25 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
@@ -9505,7 +9582,7 @@
       <c r="L1" s="158"/>
       <c r="M1" s="159"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
@@ -9520,7 +9597,7 @@
       <c r="L2" s="160"/>
       <c r="M2" s="161"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9561,7 +9638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="114">
         <v>1</v>
       </c>
@@ -9598,7 +9675,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="114">
         <v>2</v>
       </c>
@@ -9635,7 +9712,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="409.5">
       <c r="A6" s="114">
         <v>3</v>
       </c>
@@ -9676,7 +9753,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="148.5">
       <c r="A7" s="114">
         <v>4</v>
       </c>
@@ -9717,7 +9794,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="114">
         <v>5</v>
       </c>
@@ -9758,7 +9835,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="114">
         <v>6</v>
       </c>
@@ -9799,7 +9876,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="114">
         <v>7</v>
       </c>
@@ -9840,7 +9917,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="33">
       <c r="A11" s="114">
         <v>9</v>
       </c>
@@ -9881,7 +9958,438 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>"开发环境,测试环境,生产环境,测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11 F13:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="159"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33">
+      <c r="A4" s="9"/>
+      <c r="B4" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="116"/>
+    </row>
+    <row r="5" spans="1:13" ht="33">
+      <c r="A5" s="9"/>
+      <c r="B5" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="M5" s="116"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="120" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33">
+      <c r="A7" s="9"/>
+      <c r="B7" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="148.5">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9896,7 +10404,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9911,7 +10419,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9926,7 +10434,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9941,7 +10449,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9961,435 +10469,11 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I16">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
-      <formula1>"开发环境,测试环境,生产环境,测试环境、生产环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="159"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="161"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="114" t="s">
-        <v>249</v>
-      </c>
-      <c r="J4" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="L4" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="M4" s="116"/>
-    </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="117" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I5" s="114" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="K5" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="M5" s="116"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="120" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="121" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="K6" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" s="120" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="M7" s="122" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="409" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I8:I9">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5 F8:F16">
@@ -10404,26 +10488,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="B8:L8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
@@ -10440,7 +10524,7 @@
       <c r="L1" s="158"/>
       <c r="M1" s="159"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
@@ -10455,7 +10539,7 @@
       <c r="L2" s="160"/>
       <c r="M2" s="161"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -10496,7 +10580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>264</v>
@@ -10531,7 +10615,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="33">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>264</v>
@@ -10566,7 +10650,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -10605,7 +10689,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="33">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -10644,7 +10728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="409.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>374</v>
@@ -10681,22 +10765,44 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:13" ht="148.5">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="D9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10711,7 +10817,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10726,7 +10832,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10741,7 +10847,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10756,7 +10862,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10771,7 +10877,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10786,7 +10892,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10807,13 +10913,13 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I9 I4:I5">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F16 F4:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5 F8:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10825,28 +10931,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="158" t="s">
         <v>50</v>
       </c>
@@ -10863,7 +10969,7 @@
       <c r="L1" s="158"/>
       <c r="M1" s="159"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
@@ -10878,7 +10984,7 @@
       <c r="L2" s="160"/>
       <c r="M2" s="161"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -10919,7 +11025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="114" t="s">
         <v>211</v>
@@ -10954,7 +11060,7 @@
       </c>
       <c r="M4" s="116"/>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="114" t="s">
         <v>211</v>
@@ -10989,7 +11095,7 @@
       </c>
       <c r="M5" s="116"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="120" t="s">
         <v>152</v>
@@ -11028,7 +11134,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="33">
       <c r="A7" s="9"/>
       <c r="B7" s="120" t="s">
         <v>152</v>
@@ -11067,7 +11173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="409.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>374</v>
@@ -11104,22 +11210,44 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:13" ht="148.5">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="D9" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -11134,7 +11262,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -11149,7 +11277,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11164,7 +11292,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11179,7 +11307,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -11194,7 +11322,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11209,7 +11337,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11230,10 +11358,10 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I8:I9">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5 F8:F16">
@@ -11252,18 +11380,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -11289,7 +11417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -11299,7 +11427,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -11309,7 +11437,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -11319,7 +11447,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -11329,7 +11457,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -11339,7 +11467,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -11349,7 +11477,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -11359,7 +11487,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -11369,7 +11497,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -11379,7 +11507,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11389,7 +11517,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -11399,7 +11527,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11409,7 +11537,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -11419,7 +11547,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -11429,7 +11557,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11439,7 +11567,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11449,7 +11577,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11459,7 +11587,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
